--- a/module/oi/oi_媒体资源重命名/资源导入记录表.xlsx
+++ b/module/oi/oi_媒体资源重命名/资源导入记录表.xlsx
@@ -213,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +222,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,12 +413,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,7 +560,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,120 +572,126 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1222,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1207,26 +1234,26 @@
     <col min="7" max="7" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/module/oi/oi_媒体资源重命名/资源导入记录表.xlsx
+++ b/module/oi/oi_媒体资源重命名/资源导入记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="932">
   <si>
     <t>旧名字</t>
   </si>
@@ -48,6 +48,2781 @@
   </si>
   <si>
     <t>无旧名字：没资源</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Attack1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Atk1</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Attack2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Atk2</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Attack3</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Atk3</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Attack4</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Atk4</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Attack5</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Atk5</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_FocusReady1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Focus_Ready1</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_FocusReady2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Focus_Ready2</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_FocusReady3</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Focus_Ready3</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_FocusReady4</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Focus_Ready4</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_FocusReady5</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Focus_Ready5</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_FocusAttack1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Focus_Atk1</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_FocusAttack2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Focus_Atk2</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_FocusAttack3</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Focus_Atk3</t>
+  </si>
+  <si>
+    <t>Skill_Munin_Revolver_EnterStrafe</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Strafe_Enter</t>
+  </si>
+  <si>
+    <t>Skill_Munin_Revolver_FireOneShot</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Strafe_Fire</t>
+  </si>
+  <si>
+    <t>Skill_Munin_Revolver_ReloadBulltesSingle</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Strafe_Reload</t>
+  </si>
+  <si>
+    <t>Skill_Munin_Revolver_ExitStrafe</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Strafe_Exit</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_LaunchGrapple_F</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hook_Launch_F</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_LaunchGrapple_B</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hook_Launch_B</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_HookSuc_F</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hook_Suc_F</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_HookSuc_D</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hook_Suc_D</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_HookFly</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hook_Fly</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_HookFail</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hook_Fail</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Execution1_Pre</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Execu1_Pre</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Execution1_Pre_Far</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Execu1_Pre_Far</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Execution1_Pre_Hook</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Execu1_Pre_Hook</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Execution1_Pre_Far_Hook</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Execu1_Pre_Far_Hook</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Execution1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Execu1</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Execution2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Execu2</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Ultimate</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Ult</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Ultimate_End</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Ult_End</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_StepCounter</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Counter</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_StepSpecialCounter</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Counter_Sp</t>
+  </si>
+  <si>
+    <t>Skill_Munin_Dodge</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Dodge</t>
+  </si>
+  <si>
+    <t>Skill_Munin_Dodge_Step</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Dodge_Step</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_HitFlyStart</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hit_FlyStart</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_HitFlyEnd</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hit_FlyEnd</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Hitwall</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hit_Wall</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_HitWallFallingEnd</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hit_Wall_End</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_Death</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hit_Death</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_HitDeath</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hit_Death_Grd</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_FallingStart</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hit_Fall_Start</t>
+  </si>
+  <si>
+    <t>Skill_Munin_TwinBlade_EndGen</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hit_Fall_End</t>
+  </si>
+  <si>
+    <t>Skill_Munin_HeavyHit</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hit_Hvy</t>
+  </si>
+  <si>
+    <t>Char_Skill_C01_Hit_Death_B</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_ToCombat1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Battle_Enter1</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_ToCombat2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Battle_Enter2</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_ExitCombat</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Battle_Exit</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Attack1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Atk1</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Attack2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Atk2</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Attack3</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Atk3</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Attack4</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Atk4</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Attack5</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Atk5</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_FocusReady1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Focus_Ready1</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_FocusReady2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Focus_Ready2</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_FocusReady3</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Focus_Ready3</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_FocusReady4</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Focus_Ready4</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_FocusReady5</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Focus_Ready5</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_FocusReady6</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Focus_Ready6</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_FocusReady7</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Focus_Ready7</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_FocusReady8</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Focus_Ready8</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_FocusAttack1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Focus_Atk1</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_FocusAttack2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Focus_Atk2</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_FocusAttack3</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Focus_Atk3</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_RushAttack</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Atk_Rush</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_SkyAttack_Start</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_SkyAtk_Start</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_SkyAttack_End</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_SkyAtk_End</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_EnterStrafe</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Enter</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_ExitStrafe</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Exit</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_Shake</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Shake</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_DefenseRebound</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Defense_Atk</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_DefenseCounterAtk2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Counter_Atk2</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_DefenseCounterAtk3</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Counter_Atk3</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_DefenseHit</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Defense_Hit</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_DefenseBreak</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Defense_Break</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Hook_LaunchGrapple_F</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hook_Launch_F</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Hook_LaunchGrapple_B</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hook_Launch_B</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HookSuc_F</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hook_Suc_F</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HookSuc_D</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hook_Suc_D</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HookFly</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hook_Fly</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HookFail</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hook_Fail</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution1_Pre</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu1_Pre</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution1_Pre_Far</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu1_Pre_Far</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution1_Pre_Hook</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu1_Pre_Hook</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution1_Pre_Far_Hook</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu1_Pre_Far_Hook</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu1</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution2_Start</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu2_Start</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution2_Loop</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu2_LP</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution2_End</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu2_End</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution2_End_SP</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu2_End_Sp</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Skill2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Ult</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_StepCounter</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Counter</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_StepCounter_ATK</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Counter_Lit</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_StepSpecialCounter_ATK</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Counter_Hvy</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_StepSpecialCounter_B</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Counter_Sp_Atk</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Dodge</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Dodge</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Dodge_Step</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Dodge_Step</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HitFlyStart</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hit_Fly_Start</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HitFlyEnd</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hit_Fly_End</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Hitwall</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hit_Wall</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HitWallFallingEnd</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hit_Wall_End</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Death</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hit_Death</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HitDeath</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hit_Death_Grd</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_FallingStart</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hit_Fall_Start</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_EndGen</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hit_Fall_End</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HeavyHit</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hit_Hvy</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Attack1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Atk1</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Attack2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Atk2</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Attack3</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Atk3</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Attack3_1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Atk3_1</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FocusReadyN</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Focus_ReadyN</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FocusReady1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Focus_Ready1</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FocusReady2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Focus_Ready2</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FocusReady3</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Focus_Ready3</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FocusReady4</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Focus_Ready4</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FocusAttack1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Focus_Atk1</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FocusAttack1_Exp_Small</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Focus_Atk1_Exp_Lit</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FocusAttack2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Focus_Atk2</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FocusAttack2_Exp_Mid</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Focus_Atk2_Exp_Mid</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FocusAttack3</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Focus_Atk3</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FocusAttack3_Exp_Large</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Focus_Atk3_Exp_Hvy</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FocusLoop_Keep</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Focus_LP</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_EnterStrafe</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Strafe_Enter</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_ExitStrafe</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Strafe_Exit</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_Fire_Single</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Strafe_Fire_Single</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_Reload_Start</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Strafe_Reload_Start</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_ReloadBulltes_Lp</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Strafe_Reload_LP</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_ReloadBulltesSingle</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Strafe_Reload_Single</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_Reload_End</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Strafe_Reload_End</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_ReloadBulltesMulti_Lp</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Strafe_Reload_Multi_LP</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_Shellfall</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Strafe_Shell_Fall</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Execution2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Execu2</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Execution3</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Execu3</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Execution1_Pre_Hook</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Execu1_Pre_Hook</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Execution1_Pre_Close</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Execu1_Pre_Cls</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Execution1_Pre</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Execu1_Pre</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Execution1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Execu1</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Dodge</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Dodge</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Dodge_Step</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Dodge_Step</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Skill2_Full</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Ult_Full</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Skill2_FlameGun_Hit</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Ult_Hit</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Skill2_FlameGun_Shot</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Ult_Shot</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Skill2_FlameGun_Lp</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Ult_LP</t>
+  </si>
+  <si>
+    <t>Skill_Alf_Skill2_FlameGun_End</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Ult_End</t>
+  </si>
+  <si>
+    <t>Skill_Alf_FlameGun_StrafeEnd</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Strafe_End</t>
+  </si>
+  <si>
+    <t>Skill_Alf_EnterBattle</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Battle_Enter</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ExitBattle</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Battle_Exit</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_HitFly</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Hit_Fly</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_HitFlyEnd</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Hit_Fly_End</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_HitWall</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Hit_Wall</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_HitWallFalllingEnd</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Hit_Wall_End</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_Death</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Death</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_HitDeath</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Hit_Death_Grd</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_FallingStart</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Hit_Fall_Start</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_FallingEnd</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Hit_Fall_End</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_HeavyHit</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Hit_Hvy</t>
+  </si>
+  <si>
+    <t>Skill_Alf_ShotGun_HitDeath_Back</t>
+  </si>
+  <si>
+    <t>Char_Skill_C03_Hit_Death_B</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyOnCar_LShotGun_AimStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Shot_Aim_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyOnCar_LShotGun_Shot</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Shot</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyOnCar_LShotGun_AimEnd</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Shot_Aim_End</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_ChargeStoragestart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Charge_Storage_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_ChargeStorageLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Charge_Storage_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_ChargeAttackStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Charge_Atk_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_ChargeAttackLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Charge_Atk_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_ChargeCancelled</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Charge_Cancel</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_ChargeAttackEnd2</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Charge_Atk_End2</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_ChargeAttackEnd3</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Charge_Atk_End3</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_TrampleStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Trample_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_TrampleMoveLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Trample_Move_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_TrampleMoveStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Trample_Move_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_TrampleEnd</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Trample_End</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_TrampleMoveEnd</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Trample_Move_End</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Pumpkin_FlameAccordion_Puffstart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Acc_Puff_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Pumpkin_FlameAccordion_PuffLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Acc_Puff_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Pumpkin_FameAccordion_ContractionStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Acc_Contract_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Pumpkin_FlameAccordion_ContractionLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Acc_Contract_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Pumpkin_FlameAccordion_ContractionEnd</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Acc_Contract_End</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_CarriageBombingStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Bombing_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_CarriageBombingLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Bombing_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_CarriageBombingEnd</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Bombing_End</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_Drift_L</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Drift_L</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_Drift_R</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Drift_R</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Pumpkin_PumpkinSeedStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Pumpkin_Seed_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Pumpkin_PumpkinSeedLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Pumpkin_Seed_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Pumpkin_PumpkinSeedEnd</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Pumpkin_Seed_End</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_SpiderMine_Action</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Spi_Action</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_SpiderMine_Born</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Spi_Born</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_SpiderMine_Spread</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Spi_Spread</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_SpiderMine_RunLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Spi_Run_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_SpiderMine_Plant</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Spi_Plant</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_SpiderMine_Bomb</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Spi_Bomb</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_88CannonStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_88_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_88Cannon_Recoil</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_88_Recoil</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_88cannonEnd</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_88_End</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_PumpkinPartyStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Party_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_PumpkinPartyLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Party_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_PumpkinPartyEnd</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Car_Party_End</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Blade_Attack1</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Atk1</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Blade_Attack2</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Atk2</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Blade_Attack3</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Atk3</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Blade_Attack4</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Atk4</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Blade_Attack5</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Atk5</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Gun_Attack6Start</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Atk6_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Gun_Attack6Shoot</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Atk6_Shoot</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Gun_Attack6End</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Atk6_End</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Foot_ExecutionMoveStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Execu_Move_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Foot_ExecutionMoveLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Execu_Move_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Foot_ExecutionMoveEnd</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Execu_Move_End</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Foot_ExecutionTreadStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Execu_Tread_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Foot_ExecutionTreadLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Execu_Tread_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Foot_ExecutionTreadBeParriedStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Execu_Tread_Parried_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Foot_ExecutionTreadBeParriedLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Execu_Tread_Parried_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Foot_ExecutionTreadBeParriedFalse</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Execu_Tread_Parried_Fail</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Foot_ExecutionTreadBeParriedSuccess</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Execu_Tread_Parried_Sucs</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Foot_ExecutionTreadEnd</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Execu_Tread_End</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Gun_JumpToCar</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Jump_Car</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Gun_JumpToGround</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Jump_Grd</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Gun_Stun</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Stun</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Foot_Finisher</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Ult</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_PumpkinCar_DoorFly</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Pumpkin_Door_Hit</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_PumpkinCar_CoreSilent</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Pumpkin_Core_Silent</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_PumpkinCar_CoreActive</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Pumpkin_Core_Active</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_PumpkinCar_HeavyHit</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Pumpkin_Hit_Hvy</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_WalkStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Walk_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_Walkloop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Walk_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_WalkStop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Walk_Stop</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_RunStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Run_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_RunLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Run_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_RunStop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Run_Stop</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_SprintStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Sprint_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_SprintLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Sprint_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_PiaffeLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Piaffe_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_SurroundStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Surround_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_StunStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Stun_Start</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_StunLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Stun_LP</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_StunHit</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Stun_Hit</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_StunEnd</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Stun_End</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Carriage_Death</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Foley_B01_Car_Death</t>
+  </si>
+  <si>
+    <t>VO_Shout_Boss_Ashley_Horse_LightHit</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Horse_Hit_Lit</t>
+  </si>
+  <si>
+    <t>VO_Shout_Boss_Ashley_Horse_HeavyHit</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Horse_Hit_Hvy</t>
+  </si>
+  <si>
+    <t>VO_Shout_Boss_Ashley_Horse_StunStart</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Horse_Stun_Start</t>
+  </si>
+  <si>
+    <t>VO_Shout_Boss_Ashley_Horse_StunLoop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Horse_Stun_LP</t>
+  </si>
+  <si>
+    <t>VO_Shout_Boss_Ashley_Horse_StunHit</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Horse_Stun_Hit</t>
+  </si>
+  <si>
+    <t>VO_Shout_Boss_Ashley_Horse_StunEnd</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Horse_Stun_End</t>
+  </si>
+  <si>
+    <t>VO_Shout_Boss_Ashley_Horse_Death</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Horse_Death</t>
+  </si>
+  <si>
+    <t>VO_Shout_Boss_Ashley_Horse_Gen_Start</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Horse_Gen_Start</t>
+  </si>
+  <si>
+    <t>VO_Shout_Boss_Ashley_Horse_Heavy</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Horse_Hvy</t>
+  </si>
+  <si>
+    <t>VO_Shout_Boss_Ashley_Horse_Gen_Stop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Horse_Gen_Stop</t>
+  </si>
+  <si>
+    <t>VO_Shout_Boss_Ashley_Horse_Gen_Snort</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Horse_Gen_Snort</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Atk1</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Atk2</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Atk3</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Atk4</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Atk5</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Atk6</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Execu</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Execu_Parried</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Hit</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Shout_B01_Hit_Hvy</t>
+  </si>
+  <si>
+    <t>Skill_Boss_Ashley_Coffin_Drop</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Part_B01_Coffin_Drop</t>
+  </si>
+  <si>
+    <t>Skill_Boss_AshleyGround_Foot_KnightKick</t>
+  </si>
+  <si>
+    <t>Mon_Boss_Body_B01_Kick</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Born_Trans</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Jump_Start</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Jump_Start</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Jump_End</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Jump_End</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Born_Inpalce</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Born_Foley</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Door</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Door</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Atk1</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Atk1</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Skill2</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Atk2</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Step</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Step</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Stun</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Stun</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Hit_Die</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Death_Hit</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_HeavyHit_Die</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Death_Hit_Hvy</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Stun_Die</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Death_Stun</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Die</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M01_Death</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_GetUp</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M01_Getup</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Gen_Jump</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M01_Jump</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Gen_Rub</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M01_Rub</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Gen_Step</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M01_Step</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Gen_Run</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M01_Run</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Gen_Walk</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M01_Walk</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Gen_FallDie</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M01_Fall_Death</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Gen_FalllGen</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M01_Falll_Foley</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Gen_FallHeavy</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M01_Fall_Hvy</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Gen_FallLand</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M01_Fall_Land</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_Born_Transform</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Born_Trans</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_Born_Gen</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Born_Foley</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_Threaten</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Threaten</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_Land</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Land</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_Jump</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Jump</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_Hit</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Hit</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_HeavyHit</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Hit_Hvy</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_Die</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Death</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_HeavyDie</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Death_Hvy</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_Stun</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Stun</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_Knock</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Knock</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_GetUp</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Getup</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_Sprint</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Sprint</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_Atk</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Atk</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_HeavyAtk</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Atk_Hvy</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_SmashDown</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Atk_D</t>
+  </si>
+  <si>
+    <t>Mon_Werewolf_Shout_Step</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M01_Step</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Born</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M02_Born</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Atk1</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M02_Atk1</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Atk2</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M02_Atk2</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Atk3</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M02_Atk3</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Atk4</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M02_Atk4</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Atk5</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M02_Atk5</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Atk5_Crawl</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M02_Atk5_Crawl</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Atk6</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M02_Atk6</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Atk6_Crawl</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M02_Atk6_Crawl</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Buffer</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M02_Buffer</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Buffer_Crawl</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M02_Buffer_Crawl</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Gen_Die</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Skill_M02_Death</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_RunToCrawl</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M02_Run_To_Crawl</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Gen_Run</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M02_Run</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Gen_Stop</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M02_Stop</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Gen_Crawl</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M02_Crawl</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M02_Death</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Gen_GetUp</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M02_Getup</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Gen_KnockUp</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M02_Knock</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Gen_Mutilate</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M02_Mutilate</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Gen_FallDown</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Foley_M02_Fall_Down</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_Atk</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Atk</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_HeavyAtk</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Atk_Hvy</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_Atk5</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Atk5</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_Atk6</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Atk6</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_Born</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Born</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_Buffer</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Buffer</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_GetUp</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Getup</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_Hit</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Hit</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_HeavyHit</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Hit_Hvy</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_KnockUp</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Knock</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_Die</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Death</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_HeavyDie</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Death_Hvy</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_RunToCrawl</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Run_To_Crawl</t>
+  </si>
+  <si>
+    <t>Mon_Candleman_Shout_Struggle</t>
+  </si>
+  <si>
+    <t>Mon_Mob_Shout_M02_Struggle</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Dirt_Walk_01</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Walk_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Rock_Walk</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Walk_Rock</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Wood_Walk</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Walk_Wood</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Dirt_Run</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Run_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Dirt_Sprint</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Sprint_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Dirt_End</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_End_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Gen_Slide</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Slide_Gen</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Gen_Slide_Dev</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Slide_Gen_Dev</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Gen_Slide_Stop</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Slide_Gen_Stop</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Dirt_Squat</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Squat_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Gen_Climb</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Climb_Gen</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Dirt_Jump</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Jump_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Dirt_FallHeavy</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Fall_Dirt_Hvy</t>
+  </si>
+  <si>
+    <t>Player_FS_HighHeel_Dirt_FallLand</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Fall_Dirt_Lit</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Dirt_Walk_01</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Walk_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Rock_Walk</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Walk_Rock</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Wood_Walk</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Walk_Wood</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Dirt_Run</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Run_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Dirt_Sprint</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Sprint_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Dirt_End</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_End_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Gen_Slide</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Slide_Gen</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Gen_Slide_Dev</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Slide_Gen_Dev</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Gen_Slide_Stop</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Slide_Gen_Stop</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Dirt_Squat</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Squat_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Gen_Climb</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Climb_Gen</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Dirt_Jump</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Jump_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Dirt_FallHeavy</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Fall_Dirt_Hvy</t>
+  </si>
+  <si>
+    <t>Player_FS_HeelBoots_Dirt_FallLand</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_Boot_Fall_Dirt_Lit</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Dirt_Walk_01</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Walk_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Rock_Walk</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Walk_Rock</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Wood_Walk</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Walk_Wood</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Dirt_Run</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Run_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Dirt_Sprint</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Sprint_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Dirt_End</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_End_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Gen_Slide</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Slide_Gen</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Gen_Slide_Dev</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Slide_Gen_Dev</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Gen_Slide_Stop</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Slide_Gen_Stop</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Dirt_Squat</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Squat_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Gen_Climb</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Climb_Gen</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Dirt_Jump</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Jump_Dirt</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Dirt_FallHeavy</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Fall_Dirt_Hvy</t>
+  </si>
+  <si>
+    <t>Player_FS_StilettoHeel_Dirt_FallLand</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_SHeel_Fall_Dirt_Lit</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_EnterPose01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Enter_Pose01</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_EnterPose02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Enter_Pose02</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_EnterPose03_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Enter_Pose03_01</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_EnterPose03_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Enter_Pose03_02</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_EnterPose03_03</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Enter_Pose03_03</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_EnterPose03_04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Enter_Pose03_04</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_EnterPose03_05</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Enter_Pose03_05</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_EnterPose03_06</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Enter_Pose03_06</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_EnterPose04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Enter_Pose04</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_EnterPose05</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Enter_Pose05</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_EnterPose05_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Enter_Pose05_01</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_ExitPose03_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Exit_Pose03_01</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_ExitPose03_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Exit_Pose03_02</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_ExitPose03_03</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Exit_Pose03_03</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_ExitPose03_04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Exit_Pose03_04</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_ExitPose03_05</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Exit_Pose03_05</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_ExitPose03_06</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Exit_Pose03_06</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_ExitPose04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Exit_Pose04</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_ExitPose05</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Exit_Pose05</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_ExitPose05_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Exit_Pose05_01</t>
+  </si>
+  <si>
+    <t>Show_CynthiDefault_IdlePose02_interactive</t>
+  </si>
+  <si>
+    <t>Sys_Show_C04_Def_Idle_Pose02_Intv</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_EnterPose01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Enter_Pose01</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_EnterPose02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Enter_Pose02</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_EnterPose03_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Enter_Pose03_01</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_EnterPose03_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Enter_Pose03_02</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_EnterPose03_03</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Enter_Pose03_03</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_EnterPose03_04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Enter_Pose03_04</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_EnterPose03_05</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Enter_Pose03_05</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_EnterPose04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Enter_Pose04</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_EnterPose05</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Enter_Pose05</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_EnterPose06</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Enter_Pose06</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_EnterPose06_Anim</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Enter_Pose06_Anim</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_ExitPose03_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Exit_Pose03_01</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_ExitPose03_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Exit_Pose03_02</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_ExitPose03_02_B</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Exit_Pose03_02_B</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_ExitPose03_03</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Exit_Pose03_03</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_ExitPose03_04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Exit_Pose03_04</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_ExitPose03_05</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Exit_Pose03_05</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_ExitPose04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Exit_Pose04</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_ExitPose05</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Exit_Pose05</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_ExitPose06</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Exit_Pose06</t>
+  </si>
+  <si>
+    <t>Show_GratiaDefault_IdlePose02_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C02_Def_Idle_Pose02_01</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_EnterPose01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Enter_Pose01</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_EnterPose02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Enter_Pose02</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_EnterPose03_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Enter_Pose03_01</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_EnterPose03_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Enter_Pose03_02</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_EnterPose03_03</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Enter_Pose03_03</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_EnterPose03_04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Enter_Pose03_04</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_EnterPose03_05</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Enter_Pose03_05</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_EnterPose04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Enter_Pose04</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_EnterPose05_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Enter_Pose05_01</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_EnterPose05_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Enter_Pose05_02</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_EnterPose06</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Enter_Pose06</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_ExitPose04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Exit_Pose04</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_ExitPose05_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Exit_Pose05_01</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_ExitPose05_01_1_</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Exit_Pose05_01_1</t>
+  </si>
+  <si>
+    <t>Show_AlfDefault_IdlePose02_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C03_Def_Idle_Pose02_01</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_EnterPose01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Enter_Pose01</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_EnterPose02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Enter_Pose02</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_EnterPose03_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Enter_Pose03_01</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_EnterPose03_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Enter_Pose03_02</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_EnterPose04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Enter_Pose04</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_EnterPose05_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Enter_Pose05_01</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_EnterPose05_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Enter_Pose05_02</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_EnterPose06</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Enter_Pose06</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_ExitPose03_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Exit_Pose03_01</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_ExitPose03_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Exit_Pose03_02</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_ExitPose04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Exit_Pose04</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_ExitPose05_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Exit_Pose05_01</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_ExitPose05_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Exit_Pose05_02</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_ExitPose06</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Exit_Pose06</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_IdlePose02_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Idle_Pose02_01</t>
+  </si>
+  <si>
+    <t>Show_RexDefault_IdlePose03_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C05_Def_Idle_Pose03_02</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_EnterPose01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Enter_Pose01</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_EnterPose02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Enter_Pose02</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_EnterPose03_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Enter_Pose03_01</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_EnterPose03_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Enter_Pose03_02</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_EnterPose03_03</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Enter_Pose03_03</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_EnterPose03_04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Enter_Pose03_04</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_EnterPose04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Enter_Pose04</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_EnterPose05_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Enter_Pose05_01</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_EnterPose05_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Enter_Pose05_02</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_EnterPose06</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Enter_Pose06</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_ExitPose03_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Exit_Pose03_01</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_ExitPose03_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Exit_Pose03_02</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_ExitPose03_03</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Exit_Pose03_03</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_ExitPose03_04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Exit_Pose03_04</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_ExitPose04</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Exit_Pose04</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_ExitPose05_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Exit_Pose05_01</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_ExitPose05_02</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Exit_Pose05_02</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_ExitPose06</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Exit_Pose06</t>
   </si>
 </sst>
 </file>
@@ -213,7 +2988,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +2999,18 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88DB29"/>
+        <bgColor rgb="FF88DB29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFC4D7"/>
+        <bgColor rgb="FFBFC4D7"/>
       </patternFill>
     </fill>
     <fill>
@@ -539,161 +3326,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1219,43 +4009,5973 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="31.375" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="66" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4">
+        <v>1</v>
+      </c>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4">
+        <v>1</v>
+      </c>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4">
+        <v>1</v>
+      </c>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4">
+        <v>1</v>
+      </c>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4">
+        <v>1</v>
+      </c>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4">
+        <v>1</v>
+      </c>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4">
+        <v>1</v>
+      </c>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4">
+        <v>1</v>
+      </c>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4">
+        <v>1</v>
+      </c>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4">
+        <v>1</v>
+      </c>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4">
+        <v>1</v>
+      </c>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4">
+        <v>1</v>
+      </c>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4">
+        <v>1</v>
+      </c>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4">
+        <v>1</v>
+      </c>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4">
+        <v>1</v>
+      </c>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4">
+        <v>1</v>
+      </c>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4">
+        <v>1</v>
+      </c>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4">
+        <v>1</v>
+      </c>
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4">
+        <v>1</v>
+      </c>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4">
+        <v>1</v>
+      </c>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4">
+        <v>1</v>
+      </c>
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4">
+        <v>1</v>
+      </c>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4">
+        <v>1</v>
+      </c>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4">
+        <v>1</v>
+      </c>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4">
+        <v>1</v>
+      </c>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4">
+        <v>1</v>
+      </c>
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4">
+        <v>1</v>
+      </c>
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4">
+        <v>1</v>
+      </c>
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4">
+        <v>1</v>
+      </c>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4">
+        <v>1</v>
+      </c>
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4">
+        <v>1</v>
+      </c>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4">
+        <v>1</v>
+      </c>
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4">
+        <v>1</v>
+      </c>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4">
+        <v>1</v>
+      </c>
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4">
+        <v>1</v>
+      </c>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4">
+        <v>1</v>
+      </c>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4">
+        <v>1</v>
+      </c>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4">
+        <v>1</v>
+      </c>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4">
+        <v>1</v>
+      </c>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4">
+        <v>1</v>
+      </c>
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4">
+        <v>1</v>
+      </c>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4">
+        <v>1</v>
+      </c>
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4">
+        <v>1</v>
+      </c>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4">
+        <v>1</v>
+      </c>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4">
+        <v>1</v>
+      </c>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4">
+        <v>1</v>
+      </c>
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4">
+        <v>1</v>
+      </c>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4">
+        <v>1</v>
+      </c>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4">
+        <v>1</v>
+      </c>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4">
+        <v>1</v>
+      </c>
+      <c r="G172" s="4"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4">
+        <v>1</v>
+      </c>
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4">
+        <v>1</v>
+      </c>
+      <c r="G174" s="4"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4">
+        <v>1</v>
+      </c>
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4">
+        <v>1</v>
+      </c>
+      <c r="G176" s="4"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4">
+        <v>1</v>
+      </c>
+      <c r="G177" s="4"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4">
+        <v>1</v>
+      </c>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4">
+        <v>1</v>
+      </c>
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4">
+        <v>1</v>
+      </c>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4">
+        <v>1</v>
+      </c>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4">
+        <v>1</v>
+      </c>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4">
+        <v>1</v>
+      </c>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4">
+        <v>1</v>
+      </c>
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4">
+        <v>1</v>
+      </c>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4">
+        <v>1</v>
+      </c>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4">
+        <v>1</v>
+      </c>
+      <c r="G187" s="4"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4">
+        <v>1</v>
+      </c>
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4">
+        <v>1</v>
+      </c>
+      <c r="G189" s="4"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4">
+        <v>1</v>
+      </c>
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4">
+        <v>1</v>
+      </c>
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4">
+        <v>1</v>
+      </c>
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4">
+        <v>1</v>
+      </c>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4">
+        <v>1</v>
+      </c>
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4">
+        <v>1</v>
+      </c>
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4">
+        <v>1</v>
+      </c>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4">
+        <v>1</v>
+      </c>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4">
+        <v>1</v>
+      </c>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4">
+        <v>1</v>
+      </c>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4">
+        <v>1</v>
+      </c>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4">
+        <v>1</v>
+      </c>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4">
+        <v>1</v>
+      </c>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4">
+        <v>1</v>
+      </c>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4">
+        <v>1</v>
+      </c>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4">
+        <v>1</v>
+      </c>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4">
+        <v>1</v>
+      </c>
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4">
+        <v>1</v>
+      </c>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4">
+        <v>1</v>
+      </c>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4">
+        <v>1</v>
+      </c>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4">
+        <v>1</v>
+      </c>
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4">
+        <v>1</v>
+      </c>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4">
+        <v>1</v>
+      </c>
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4">
+        <v>1</v>
+      </c>
+      <c r="G213" s="4"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4">
+        <v>1</v>
+      </c>
+      <c r="G214" s="4"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4">
+        <v>1</v>
+      </c>
+      <c r="G215" s="4"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4">
+        <v>1</v>
+      </c>
+      <c r="G216" s="4"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4">
+        <v>1</v>
+      </c>
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4">
+        <v>1</v>
+      </c>
+      <c r="G218" s="4"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4">
+        <v>1</v>
+      </c>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4">
+        <v>1</v>
+      </c>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4">
+        <v>1</v>
+      </c>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4">
+        <v>1</v>
+      </c>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4">
+        <v>1</v>
+      </c>
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4">
+        <v>1</v>
+      </c>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4">
+        <v>1</v>
+      </c>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4">
+        <v>1</v>
+      </c>
+      <c r="G226" s="4"/>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4">
+        <v>1</v>
+      </c>
+      <c r="G227" s="4"/>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4">
+        <v>1</v>
+      </c>
+      <c r="G228" s="4"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4">
+        <v>1</v>
+      </c>
+      <c r="G229" s="4"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4">
+        <v>1</v>
+      </c>
+      <c r="G230" s="4"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4">
+        <v>1</v>
+      </c>
+      <c r="G231" s="4"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4">
+        <v>1</v>
+      </c>
+      <c r="G232" s="4"/>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4">
+        <v>1</v>
+      </c>
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4">
+        <v>1</v>
+      </c>
+      <c r="G235" s="4"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4">
+        <v>1</v>
+      </c>
+      <c r="G236" s="4"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4">
+        <v>1</v>
+      </c>
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4">
+        <v>1</v>
+      </c>
+      <c r="G238" s="4"/>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4">
+        <v>1</v>
+      </c>
+      <c r="G239" s="4"/>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4">
+        <v>1</v>
+      </c>
+      <c r="G240" s="4"/>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4">
+        <v>1</v>
+      </c>
+      <c r="G241" s="4"/>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4">
+        <v>1</v>
+      </c>
+      <c r="G242" s="4"/>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4">
+        <v>1</v>
+      </c>
+      <c r="G243" s="4"/>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4">
+        <v>1</v>
+      </c>
+      <c r="G244" s="4"/>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4">
+        <v>1</v>
+      </c>
+      <c r="G245" s="4"/>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4">
+        <v>1</v>
+      </c>
+      <c r="G246" s="4"/>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="5"/>
+      <c r="B251" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="5"/>
+      <c r="B252" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="5"/>
+      <c r="B253" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="5"/>
+      <c r="B255" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="5"/>
+      <c r="B256" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="5"/>
+      <c r="B257" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="5"/>
+      <c r="B258" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="5"/>
+      <c r="B259" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="5"/>
+      <c r="B260" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4">
+        <v>1</v>
+      </c>
+      <c r="G262" s="4"/>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4"/>
+      <c r="F263" s="4">
+        <v>1</v>
+      </c>
+      <c r="G263" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4"/>
+      <c r="F264" s="4">
+        <v>1</v>
+      </c>
+      <c r="G264" s="4"/>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4">
+        <v>1</v>
+      </c>
+      <c r="G266" s="4"/>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4">
+        <v>1</v>
+      </c>
+      <c r="G267" s="4"/>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4">
+        <v>1</v>
+      </c>
+      <c r="G268" s="4"/>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4">
+        <v>1</v>
+      </c>
+      <c r="G269" s="4"/>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4"/>
+      <c r="F271" s="4">
+        <v>1</v>
+      </c>
+      <c r="G271" s="4"/>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4">
+        <v>1</v>
+      </c>
+      <c r="G272" s="4"/>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4"/>
+      <c r="F276" s="4">
+        <v>1</v>
+      </c>
+      <c r="G276" s="4"/>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4"/>
+      <c r="F279" s="4">
+        <v>1</v>
+      </c>
+      <c r="G279" s="4"/>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4"/>
+      <c r="E303" s="4"/>
+      <c r="F303" s="4">
+        <v>1</v>
+      </c>
+      <c r="G303" s="4"/>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4"/>
+      <c r="E304" s="4"/>
+      <c r="F304" s="4">
+        <v>1</v>
+      </c>
+      <c r="G304" s="4"/>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4"/>
+      <c r="E305" s="4"/>
+      <c r="F305" s="4">
+        <v>1</v>
+      </c>
+      <c r="G305" s="4"/>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4"/>
+      <c r="E306" s="4"/>
+      <c r="F306" s="4">
+        <v>1</v>
+      </c>
+      <c r="G306" s="4"/>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="4">
+        <v>1</v>
+      </c>
+      <c r="G307" s="4"/>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="4">
+        <v>1</v>
+      </c>
+      <c r="G308" s="4"/>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4">
+        <v>1</v>
+      </c>
+      <c r="G309" s="4"/>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4"/>
+      <c r="F311" s="4">
+        <v>1</v>
+      </c>
+      <c r="G311" s="4"/>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4"/>
+      <c r="F312" s="4">
+        <v>1</v>
+      </c>
+      <c r="G312" s="4"/>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="4">
+        <v>1</v>
+      </c>
+      <c r="G313" s="4"/>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4"/>
+      <c r="F322" s="4">
+        <v>1</v>
+      </c>
+      <c r="G322" s="4"/>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4">
+        <v>1</v>
+      </c>
+      <c r="G323" s="4"/>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4"/>
+      <c r="F327" s="4">
+        <v>1</v>
+      </c>
+      <c r="G327" s="4"/>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4">
+        <v>1</v>
+      </c>
+      <c r="G328" s="4"/>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4">
+        <v>1</v>
+      </c>
+      <c r="G329" s="4"/>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
+      <c r="F338" s="4">
+        <v>1</v>
+      </c>
+      <c r="G338" s="4"/>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C352" s="4"/>
+      <c r="D352" s="4"/>
+      <c r="E352" s="4"/>
+      <c r="F352" s="4">
+        <v>1</v>
+      </c>
+      <c r="G352" s="4"/>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C366" s="4"/>
+      <c r="D366" s="4"/>
+      <c r="E366" s="4"/>
+      <c r="F366" s="4">
+        <v>1</v>
+      </c>
+      <c r="G366" s="4"/>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C380" s="4"/>
+      <c r="D380" s="4"/>
+      <c r="E380" s="4"/>
+      <c r="F380" s="4">
+        <v>1</v>
+      </c>
+      <c r="G380" s="4"/>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C381" s="4"/>
+      <c r="D381" s="4"/>
+      <c r="E381" s="4"/>
+      <c r="F381" s="4">
+        <v>1</v>
+      </c>
+      <c r="G381" s="4"/>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C382" s="4"/>
+      <c r="D382" s="4"/>
+      <c r="E382" s="4"/>
+      <c r="F382" s="4">
+        <v>1</v>
+      </c>
+      <c r="G382" s="4"/>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C383" s="4"/>
+      <c r="D383" s="4"/>
+      <c r="E383" s="4"/>
+      <c r="F383" s="4">
+        <v>1</v>
+      </c>
+      <c r="G383" s="4"/>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C384" s="4"/>
+      <c r="D384" s="4"/>
+      <c r="E384" s="4"/>
+      <c r="F384" s="4">
+        <v>1</v>
+      </c>
+      <c r="G384" s="4"/>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C385" s="4"/>
+      <c r="D385" s="4"/>
+      <c r="E385" s="4"/>
+      <c r="F385" s="4">
+        <v>1</v>
+      </c>
+      <c r="G385" s="4"/>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C386" s="4"/>
+      <c r="D386" s="4"/>
+      <c r="E386" s="4"/>
+      <c r="F386" s="4">
+        <v>1</v>
+      </c>
+      <c r="G386" s="4"/>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C387" s="4"/>
+      <c r="D387" s="4"/>
+      <c r="E387" s="4"/>
+      <c r="F387" s="4">
+        <v>1</v>
+      </c>
+      <c r="G387" s="4"/>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C388" s="4"/>
+      <c r="D388" s="4"/>
+      <c r="E388" s="4"/>
+      <c r="F388" s="4">
+        <v>1</v>
+      </c>
+      <c r="G388" s="4"/>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C389" s="4"/>
+      <c r="D389" s="4"/>
+      <c r="E389" s="4"/>
+      <c r="F389" s="4">
+        <v>1</v>
+      </c>
+      <c r="G389" s="4"/>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C395" s="4"/>
+      <c r="D395" s="4"/>
+      <c r="E395" s="4"/>
+      <c r="F395" s="4">
+        <v>1</v>
+      </c>
+      <c r="G395" s="4"/>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C398" s="4"/>
+      <c r="D398" s="4"/>
+      <c r="E398" s="4"/>
+      <c r="F398" s="4">
+        <v>1</v>
+      </c>
+      <c r="G398" s="4"/>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C400" s="4"/>
+      <c r="D400" s="4"/>
+      <c r="E400" s="4"/>
+      <c r="F400" s="4">
+        <v>1</v>
+      </c>
+      <c r="G400" s="4"/>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C401" s="4"/>
+      <c r="D401" s="4"/>
+      <c r="E401" s="4"/>
+      <c r="F401" s="4">
+        <v>1</v>
+      </c>
+      <c r="G401" s="4"/>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C402" s="4"/>
+      <c r="D402" s="4"/>
+      <c r="E402" s="4"/>
+      <c r="F402" s="4">
+        <v>1</v>
+      </c>
+      <c r="G402" s="4"/>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C403" s="4"/>
+      <c r="D403" s="4"/>
+      <c r="E403" s="4"/>
+      <c r="F403" s="4">
+        <v>1</v>
+      </c>
+      <c r="G403" s="4"/>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C404" s="4"/>
+      <c r="D404" s="4"/>
+      <c r="E404" s="4"/>
+      <c r="F404" s="4">
+        <v>1</v>
+      </c>
+      <c r="G404" s="4"/>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C405" s="4"/>
+      <c r="D405" s="4"/>
+      <c r="E405" s="4"/>
+      <c r="F405" s="4">
+        <v>1</v>
+      </c>
+      <c r="G405" s="4"/>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C406" s="4"/>
+      <c r="D406" s="4"/>
+      <c r="E406" s="4"/>
+      <c r="F406" s="4">
+        <v>1</v>
+      </c>
+      <c r="G406" s="4"/>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C407" s="4"/>
+      <c r="D407" s="4"/>
+      <c r="E407" s="4"/>
+      <c r="F407" s="4">
+        <v>1</v>
+      </c>
+      <c r="G407" s="4"/>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C408" s="4"/>
+      <c r="D408" s="4"/>
+      <c r="E408" s="4"/>
+      <c r="F408" s="4">
+        <v>1</v>
+      </c>
+      <c r="G408" s="4"/>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C409" s="4"/>
+      <c r="D409" s="4"/>
+      <c r="E409" s="4"/>
+      <c r="F409" s="4">
+        <v>1</v>
+      </c>
+      <c r="G409" s="4"/>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C412" s="4"/>
+      <c r="D412" s="4"/>
+      <c r="E412" s="4"/>
+      <c r="F412" s="4">
+        <v>1</v>
+      </c>
+      <c r="G412" s="4"/>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C413" s="4"/>
+      <c r="D413" s="4"/>
+      <c r="E413" s="4"/>
+      <c r="F413" s="4">
+        <v>1</v>
+      </c>
+      <c r="G413" s="4"/>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C414" s="4"/>
+      <c r="D414" s="4"/>
+      <c r="E414" s="4"/>
+      <c r="F414" s="4">
+        <v>1</v>
+      </c>
+      <c r="G414" s="4"/>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C416" s="4"/>
+      <c r="D416" s="4"/>
+      <c r="E416" s="4"/>
+      <c r="F416" s="4">
+        <v>1</v>
+      </c>
+      <c r="G416" s="4"/>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C417" s="4"/>
+      <c r="D417" s="4"/>
+      <c r="E417" s="4"/>
+      <c r="F417" s="4">
+        <v>1</v>
+      </c>
+      <c r="G417" s="4"/>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C418" s="4"/>
+      <c r="D418" s="4"/>
+      <c r="E418" s="4"/>
+      <c r="F418" s="4">
+        <v>1</v>
+      </c>
+      <c r="G418" s="4"/>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="C419" s="4"/>
+      <c r="D419" s="4"/>
+      <c r="E419" s="4"/>
+      <c r="F419" s="4">
+        <v>1</v>
+      </c>
+      <c r="G419" s="4"/>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C420" s="4"/>
+      <c r="D420" s="4"/>
+      <c r="E420" s="4"/>
+      <c r="F420" s="4">
+        <v>1</v>
+      </c>
+      <c r="G420" s="4"/>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C421" s="4"/>
+      <c r="D421" s="4"/>
+      <c r="E421" s="4"/>
+      <c r="F421" s="4">
+        <v>1</v>
+      </c>
+      <c r="G421" s="4"/>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C422" s="4"/>
+      <c r="D422" s="4"/>
+      <c r="E422" s="4"/>
+      <c r="F422" s="4">
+        <v>1</v>
+      </c>
+      <c r="G422" s="4"/>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C423" s="4"/>
+      <c r="D423" s="4"/>
+      <c r="E423" s="4"/>
+      <c r="F423" s="4">
+        <v>1</v>
+      </c>
+      <c r="G423" s="4"/>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C424" s="4"/>
+      <c r="D424" s="4"/>
+      <c r="E424" s="4"/>
+      <c r="F424" s="4">
+        <v>1</v>
+      </c>
+      <c r="G424" s="4"/>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C427" s="4"/>
+      <c r="D427" s="4"/>
+      <c r="E427" s="4"/>
+      <c r="F427" s="4">
+        <v>1</v>
+      </c>
+      <c r="G427" s="4"/>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C428" s="4"/>
+      <c r="D428" s="4"/>
+      <c r="E428" s="4"/>
+      <c r="F428" s="4">
+        <v>1</v>
+      </c>
+      <c r="G428" s="4"/>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C429" s="4"/>
+      <c r="D429" s="4"/>
+      <c r="E429" s="4"/>
+      <c r="F429" s="4">
+        <v>1</v>
+      </c>
+      <c r="G429" s="4"/>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C430" s="4"/>
+      <c r="D430" s="4"/>
+      <c r="E430" s="4"/>
+      <c r="F430" s="4">
+        <v>1</v>
+      </c>
+      <c r="G430" s="4"/>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C437" s="4"/>
+      <c r="D437" s="4"/>
+      <c r="E437" s="4"/>
+      <c r="F437" s="4">
+        <v>1</v>
+      </c>
+      <c r="G437" s="4"/>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="C438" s="4"/>
+      <c r="D438" s="4"/>
+      <c r="E438" s="4"/>
+      <c r="F438" s="4">
+        <v>1</v>
+      </c>
+      <c r="G438" s="4"/>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="C439" s="4"/>
+      <c r="D439" s="4"/>
+      <c r="E439" s="4"/>
+      <c r="F439" s="4">
+        <v>1</v>
+      </c>
+      <c r="G439" s="4"/>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="C440" s="4"/>
+      <c r="D440" s="4"/>
+      <c r="E440" s="4"/>
+      <c r="F440" s="4">
+        <v>1</v>
+      </c>
+      <c r="G440" s="4"/>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C441" s="4"/>
+      <c r="D441" s="4"/>
+      <c r="E441" s="4"/>
+      <c r="F441" s="4">
+        <v>1</v>
+      </c>
+      <c r="G441" s="4"/>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="C442" s="4"/>
+      <c r="D442" s="4"/>
+      <c r="E442" s="4"/>
+      <c r="F442" s="4">
+        <v>1</v>
+      </c>
+      <c r="G442" s="4"/>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C443" s="4"/>
+      <c r="D443" s="4"/>
+      <c r="E443" s="4"/>
+      <c r="F443" s="4">
+        <v>1</v>
+      </c>
+      <c r="G443" s="4"/>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C444" s="4"/>
+      <c r="D444" s="4"/>
+      <c r="E444" s="4"/>
+      <c r="F444" s="4">
+        <v>1</v>
+      </c>
+      <c r="G444" s="4"/>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C445" s="4"/>
+      <c r="D445" s="4"/>
+      <c r="E445" s="4"/>
+      <c r="F445" s="4">
+        <v>1</v>
+      </c>
+      <c r="G445" s="4"/>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C446" s="4"/>
+      <c r="D446" s="4"/>
+      <c r="E446" s="4"/>
+      <c r="F446" s="4">
+        <v>1</v>
+      </c>
+      <c r="G446" s="4"/>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="C447" s="4"/>
+      <c r="D447" s="4"/>
+      <c r="E447" s="4"/>
+      <c r="F447" s="4">
+        <v>1</v>
+      </c>
+      <c r="G447" s="4"/>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C448" s="4"/>
+      <c r="D448" s="4"/>
+      <c r="E448" s="4"/>
+      <c r="F448" s="4">
+        <v>1</v>
+      </c>
+      <c r="G448" s="4"/>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="C449" s="4"/>
+      <c r="D449" s="4"/>
+      <c r="E449" s="4"/>
+      <c r="F449" s="4">
+        <v>1</v>
+      </c>
+      <c r="G449" s="4"/>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C450" s="4"/>
+      <c r="D450" s="4"/>
+      <c r="E450" s="4"/>
+      <c r="F450" s="4">
+        <v>1</v>
+      </c>
+      <c r="G450" s="4"/>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C452" s="4"/>
+      <c r="D452" s="4"/>
+      <c r="E452" s="4"/>
+      <c r="F452" s="4">
+        <v>1</v>
+      </c>
+      <c r="G452" s="4"/>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="A453" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C453" s="4"/>
+      <c r="D453" s="4"/>
+      <c r="E453" s="4"/>
+      <c r="F453" s="4">
+        <v>1</v>
+      </c>
+      <c r="G453" s="4"/>
+    </row>
+    <row r="454" spans="1:7">
+      <c r="A454" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C454" s="4"/>
+      <c r="D454" s="4"/>
+      <c r="E454" s="4"/>
+      <c r="F454" s="4">
+        <v>1</v>
+      </c>
+      <c r="G454" s="4"/>
+    </row>
+    <row r="455" spans="1:7">
+      <c r="A455" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C455" s="4"/>
+      <c r="D455" s="4"/>
+      <c r="E455" s="4"/>
+      <c r="F455" s="4">
+        <v>1</v>
+      </c>
+      <c r="G455" s="4"/>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="A456" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C456" s="4"/>
+      <c r="D456" s="4"/>
+      <c r="E456" s="4"/>
+      <c r="F456" s="4">
+        <v>1</v>
+      </c>
+      <c r="G456" s="4"/>
+    </row>
+    <row r="457" spans="1:7">
+      <c r="A457" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C457" s="4"/>
+      <c r="D457" s="4"/>
+      <c r="E457" s="4"/>
+      <c r="F457" s="4">
+        <v>1</v>
+      </c>
+      <c r="G457" s="4"/>
+    </row>
+    <row r="458" spans="1:7">
+      <c r="A458" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C458" s="4"/>
+      <c r="D458" s="4"/>
+      <c r="E458" s="4"/>
+      <c r="F458" s="4">
+        <v>1</v>
+      </c>
+      <c r="G458" s="4"/>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="A459" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C459" s="4"/>
+      <c r="D459" s="4"/>
+      <c r="E459" s="4"/>
+      <c r="F459" s="4">
+        <v>1</v>
+      </c>
+      <c r="G459" s="4"/>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="C460" s="4"/>
+      <c r="D460" s="4"/>
+      <c r="E460" s="4"/>
+      <c r="F460" s="4">
+        <v>1</v>
+      </c>
+      <c r="G460" s="4"/>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C462" s="4"/>
+      <c r="D462" s="4"/>
+      <c r="E462" s="4"/>
+      <c r="F462" s="4">
+        <v>1</v>
+      </c>
+      <c r="G462" s="4"/>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C463" s="4"/>
+      <c r="D463" s="4"/>
+      <c r="E463" s="4"/>
+      <c r="F463" s="4">
+        <v>1</v>
+      </c>
+      <c r="G463" s="4"/>
+    </row>
+    <row r="464" spans="1:7">
+      <c r="A464" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="C464" s="4"/>
+      <c r="D464" s="4"/>
+      <c r="E464" s="4"/>
+      <c r="F464" s="4">
+        <v>1</v>
+      </c>
+      <c r="G464" s="4"/>
+    </row>
+    <row r="465" spans="1:7">
+      <c r="A465" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="C465" s="4"/>
+      <c r="D465" s="4"/>
+      <c r="E465" s="4"/>
+      <c r="F465" s="4">
+        <v>1</v>
+      </c>
+      <c r="G465" s="4"/>
+    </row>
+    <row r="466" spans="1:7">
+      <c r="A466" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C466" s="4"/>
+      <c r="D466" s="4"/>
+      <c r="E466" s="4"/>
+      <c r="F466" s="4">
+        <v>1</v>
+      </c>
+      <c r="G466" s="4"/>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="C467" s="4"/>
+      <c r="D467" s="4"/>
+      <c r="E467" s="4"/>
+      <c r="F467" s="4">
+        <v>1</v>
+      </c>
+      <c r="G467" s="4"/>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
+      <c r="A470" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="C470" s="4"/>
+      <c r="D470" s="4"/>
+      <c r="E470" s="4"/>
+      <c r="F470" s="4">
+        <v>1</v>
+      </c>
+      <c r="G470" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/module/oi/oi_媒体资源重命名/资源导入记录表.xlsx
+++ b/module/oi/oi_媒体资源重命名/资源导入记录表.xlsx
@@ -2988,7 +2988,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3005,6 +3005,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF88DB29"/>
         <bgColor rgb="FF88DB29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1FC72"/>
+        <bgColor rgb="FFF1FC72"/>
       </patternFill>
     </fill>
     <fill>
@@ -3347,7 +3353,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -3371,16 +3377,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
@@ -3389,89 +3395,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3483,7 +3489,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4011,8 +4021,8 @@
   <sheetPr/>
   <dimension ref="A1:G470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4026,7 +4036,7 @@
     <col min="7" max="7" width="23.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
+    <row r="1" ht="42" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4544,13 +4554,20 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
@@ -4689,15 +4706,15 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7">
         <v>1</v>
       </c>
     </row>
@@ -5318,21 +5335,35 @@
       </c>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:7">
+      <c r="A97" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1" t="s">
+      <c r="C97" s="6">
+        <v>1</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="5" t="s">
         <v>199</v>
       </c>
+      <c r="C98" s="6">
+        <v>1</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
@@ -5411,13 +5442,20 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:7">
+      <c r="A106" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="5" t="s">
         <v>215</v>
       </c>
+      <c r="C106" s="6">
+        <v>1</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
@@ -5584,13 +5622,20 @@
       </c>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:7">
+      <c r="A118" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="5" t="s">
         <v>239</v>
       </c>
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="4" t="s">
@@ -5607,13 +5652,20 @@
       </c>
       <c r="G119" s="4"/>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="1:7">
+      <c r="A120" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="5" t="s">
         <v>243</v>
       </c>
+      <c r="C120" s="6">
+        <v>1</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="4" t="s">
@@ -5630,13 +5682,20 @@
       </c>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:7">
+      <c r="A122" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="5" t="s">
         <v>247</v>
       </c>
+      <c r="C122" s="6">
+        <v>1</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
@@ -5660,7 +5719,9 @@
       <c r="B124" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C124" s="4"/>
+      <c r="C124" s="4">
+        <v>1</v>
+      </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4">
@@ -5675,7 +5736,9 @@
       <c r="B125" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C125" s="4"/>
+      <c r="C125" s="4">
+        <v>1</v>
+      </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4">
@@ -5683,13 +5746,20 @@
       </c>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:7">
+      <c r="A126" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="5" t="s">
         <v>255</v>
       </c>
+      <c r="C126" s="6">
+        <v>1</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
@@ -5766,13 +5836,20 @@
       </c>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="1:7">
+      <c r="A132" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="5" t="s">
         <v>267</v>
       </c>
+      <c r="C132" s="6">
+        <v>1</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4" t="s">
@@ -5864,13 +5941,20 @@
       </c>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:7">
+      <c r="A139" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="5" t="s">
         <v>281</v>
       </c>
+      <c r="C139" s="6">
+        <v>1</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
@@ -7489,132 +7573,132 @@
       </c>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="5"/>
-      <c r="B251" s="5" t="s">
+      <c r="A251" s="7"/>
+      <c r="B251" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="C251" s="5"/>
-      <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="5">
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="5"/>
-      <c r="B252" s="5" t="s">
+      <c r="A252" s="7"/>
+      <c r="B252" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="C252" s="5"/>
-      <c r="D252" s="5"/>
-      <c r="E252" s="5"/>
-      <c r="F252" s="5"/>
-      <c r="G252" s="5">
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="7"/>
+      <c r="G252" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="5"/>
-      <c r="B253" s="5" t="s">
+      <c r="A253" s="7"/>
+      <c r="B253" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C253" s="5"/>
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="5">
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
+      <c r="G253" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="5"/>
-      <c r="B254" s="5" t="s">
+      <c r="A254" s="7"/>
+      <c r="B254" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C254" s="5"/>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5">
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="5"/>
-      <c r="B255" s="5" t="s">
+      <c r="A255" s="7"/>
+      <c r="B255" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="C255" s="5"/>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="5">
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="7"/>
+      <c r="G255" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="5"/>
-      <c r="B256" s="5" t="s">
+      <c r="A256" s="7"/>
+      <c r="B256" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="C256" s="5"/>
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="5">
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="5"/>
-      <c r="B257" s="5" t="s">
+      <c r="A257" s="7"/>
+      <c r="B257" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="C257" s="5"/>
-      <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="5">
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
+      <c r="G257" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="5"/>
-      <c r="B258" s="5" t="s">
+      <c r="A258" s="7"/>
+      <c r="B258" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="C258" s="5"/>
-      <c r="D258" s="5"/>
-      <c r="E258" s="5"/>
-      <c r="F258" s="5"/>
-      <c r="G258" s="5">
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
+      <c r="G258" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="5"/>
-      <c r="B259" s="5" t="s">
+      <c r="A259" s="7"/>
+      <c r="B259" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="C259" s="5"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5">
+      <c r="C259" s="7"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+      <c r="G259" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="5"/>
-      <c r="B260" s="5" t="s">
+      <c r="A260" s="7"/>
+      <c r="B260" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C260" s="5"/>
-      <c r="D260" s="5"/>
-      <c r="E260" s="5"/>
-      <c r="F260" s="5"/>
-      <c r="G260" s="5">
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
+      <c r="G260" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7739,13 +7823,20 @@
       </c>
       <c r="G269" s="4"/>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="1" t="s">
+    <row r="270" spans="1:7">
+      <c r="A270" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" s="5" t="s">
         <v>532</v>
       </c>
+      <c r="C270" s="6">
+        <v>1</v>
+      </c>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="4" t="s">
@@ -7816,21 +7907,35 @@
       </c>
       <c r="G276" s="4"/>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="1" t="s">
+    <row r="277" spans="1:7">
+      <c r="A277" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B277" s="5" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1" t="s">
+      <c r="C277" s="6">
+        <v>1</v>
+      </c>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B278" s="5" t="s">
         <v>548</v>
       </c>
+      <c r="C278" s="6">
+        <v>1</v>
+      </c>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="4" t="s">
@@ -7847,29 +7952,50 @@
       </c>
       <c r="G279" s="4"/>
     </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="1" t="s">
+    <row r="280" spans="1:7">
+      <c r="A280" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B280" s="5" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="1" t="s">
+      <c r="C280" s="6">
+        <v>1</v>
+      </c>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B281" s="5" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="1" t="s">
+      <c r="C281" s="6">
+        <v>1</v>
+      </c>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B282" s="5" t="s">
         <v>556</v>
       </c>
+      <c r="C282" s="6">
+        <v>1</v>
+      </c>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
@@ -7879,13 +8005,20 @@
         <v>558</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="1" t="s">
+    <row r="284" spans="1:7">
+      <c r="A284" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B284" s="5" t="s">
         <v>560</v>
       </c>
+      <c r="C284" s="6">
+        <v>1</v>
+      </c>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
@@ -7895,21 +8028,35 @@
         <v>562</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="1" t="s">
+    <row r="286" spans="1:7">
+      <c r="A286" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B286" s="5" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="1" t="s">
+      <c r="C286" s="6">
+        <v>1</v>
+      </c>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B287" s="5" t="s">
         <v>566</v>
       </c>
+      <c r="C287" s="6">
+        <v>1</v>
+      </c>
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
@@ -7927,37 +8074,65 @@
         <v>570</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="1" t="s">
+    <row r="290" spans="1:7">
+      <c r="A290" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B290" s="5" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="1" t="s">
+      <c r="C290" s="6">
+        <v>1</v>
+      </c>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
+      <c r="G290" s="6"/>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B291" s="5" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="1" t="s">
+      <c r="C291" s="6">
+        <v>1</v>
+      </c>
+      <c r="D291" s="6"/>
+      <c r="E291" s="6"/>
+      <c r="F291" s="6"/>
+      <c r="G291" s="6"/>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B292" s="5" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="1" t="s">
+      <c r="C292" s="6">
+        <v>1</v>
+      </c>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B293" s="5" t="s">
         <v>578</v>
       </c>
+      <c r="C293" s="6">
+        <v>1</v>
+      </c>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6"/>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
@@ -7975,37 +8150,65 @@
         <v>582</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="1" t="s">
+    <row r="296" spans="1:7">
+      <c r="A296" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B296" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="1" t="s">
+      <c r="C296" s="6">
+        <v>1</v>
+      </c>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
+      <c r="F296" s="6"/>
+      <c r="G296" s="6"/>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B297" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="1" t="s">
+      <c r="C297" s="6">
+        <v>1</v>
+      </c>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B298" s="5" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="1" t="s">
+      <c r="C298" s="6">
+        <v>1</v>
+      </c>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+      <c r="F298" s="6"/>
+      <c r="G298" s="6"/>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B299" s="5" t="s">
         <v>590</v>
       </c>
+      <c r="C299" s="6">
+        <v>1</v>
+      </c>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
@@ -8015,21 +8218,35 @@
         <v>592</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="1" t="s">
+    <row r="301" spans="1:7">
+      <c r="A301" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" s="5" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="1" t="s">
+      <c r="C301" s="6">
+        <v>1</v>
+      </c>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B302" s="5" t="s">
         <v>596</v>
       </c>
+      <c r="C302" s="6">
+        <v>1</v>
+      </c>
+      <c r="D302" s="6"/>
+      <c r="E302" s="6"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="4" t="s">
@@ -8189,13 +8406,20 @@
       </c>
       <c r="G313" s="4"/>
     </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="1" t="s">
+    <row r="314" spans="1:7">
+      <c r="A314" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B314" s="5" t="s">
         <v>620</v>
       </c>
+      <c r="C314" s="6">
+        <v>1</v>
+      </c>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
@@ -8205,37 +8429,65 @@
         <v>622</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="1" t="s">
+    <row r="316" spans="1:7">
+      <c r="A316" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B316" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="1" t="s">
+      <c r="C316" s="6">
+        <v>1</v>
+      </c>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B317" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1" t="s">
+      <c r="C317" s="6">
+        <v>1</v>
+      </c>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B318" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="1" t="s">
+      <c r="C318" s="6">
+        <v>1</v>
+      </c>
+      <c r="D318" s="6"/>
+      <c r="E318" s="6"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B319" s="5" t="s">
         <v>629</v>
       </c>
+      <c r="C319" s="6">
+        <v>1</v>
+      </c>
+      <c r="D319" s="6"/>
+      <c r="E319" s="6"/>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
@@ -8245,13 +8497,20 @@
         <v>631</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="1" t="s">
+    <row r="321" spans="1:7">
+      <c r="A321" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B321" s="5" t="s">
         <v>633</v>
       </c>
+      <c r="C321" s="6">
+        <v>1</v>
+      </c>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="4" t="s">
@@ -8283,13 +8542,20 @@
       </c>
       <c r="G323" s="4"/>
     </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="1" t="s">
+    <row r="324" spans="1:7">
+      <c r="A324" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="B324" s="5" t="s">
         <v>639</v>
       </c>
+      <c r="C324" s="6">
+        <v>1</v>
+      </c>
+      <c r="D324" s="6"/>
+      <c r="E324" s="6"/>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6"/>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
@@ -8299,13 +8565,20 @@
         <v>641</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="1" t="s">
+    <row r="326" spans="1:7">
+      <c r="A326" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="B326" s="5" t="s">
         <v>643</v>
       </c>
+      <c r="C326" s="6">
+        <v>1</v>
+      </c>
+      <c r="D326" s="6"/>
+      <c r="E326" s="6"/>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6"/>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="4" t="s">
@@ -8352,69 +8625,125 @@
       </c>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="1" t="s">
+    <row r="330" spans="1:7">
+      <c r="A330" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="B330" s="5" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="1" t="s">
+      <c r="C330" s="6">
+        <v>1</v>
+      </c>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+      <c r="F330" s="6"/>
+      <c r="G330" s="6"/>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="B331" s="5" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="1" t="s">
+      <c r="C331" s="6">
+        <v>1</v>
+      </c>
+      <c r="D331" s="6"/>
+      <c r="E331" s="6"/>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6"/>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="B332" s="5" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="1" t="s">
+      <c r="C332" s="6">
+        <v>1</v>
+      </c>
+      <c r="D332" s="6"/>
+      <c r="E332" s="6"/>
+      <c r="F332" s="6"/>
+      <c r="G332" s="6"/>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B333" s="5" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="1" t="s">
+      <c r="C333" s="6">
+        <v>1</v>
+      </c>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="B334" s="5" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="1" t="s">
+      <c r="C334" s="6">
+        <v>1</v>
+      </c>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+      <c r="F334" s="6"/>
+      <c r="G334" s="6"/>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="B335" s="5" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="1" t="s">
+      <c r="C335" s="6">
+        <v>1</v>
+      </c>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6"/>
+      <c r="F335" s="6"/>
+      <c r="G335" s="6"/>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="B336" s="5" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="1" t="s">
+      <c r="C336" s="6">
+        <v>1</v>
+      </c>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B337" s="5" t="s">
         <v>665</v>
       </c>
+      <c r="C337" s="6">
+        <v>1</v>
+      </c>
+      <c r="D337" s="6"/>
+      <c r="E337" s="6"/>
+      <c r="F337" s="6"/>
+      <c r="G337" s="6"/>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="4" t="s">
@@ -8439,37 +8768,65 @@
         <v>669</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="1" t="s">
+    <row r="340" spans="1:7">
+      <c r="A340" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" s="5" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="1" t="s">
+      <c r="C340" s="6">
+        <v>1</v>
+      </c>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+      <c r="F340" s="6"/>
+      <c r="G340" s="6"/>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B341" s="5" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="1" t="s">
+      <c r="C341" s="6">
+        <v>1</v>
+      </c>
+      <c r="D341" s="6"/>
+      <c r="E341" s="6"/>
+      <c r="F341" s="6"/>
+      <c r="G341" s="6"/>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="B342" s="5" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="1" t="s">
+      <c r="C342" s="6">
+        <v>1</v>
+      </c>
+      <c r="D342" s="6"/>
+      <c r="E342" s="6"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B343" s="5" t="s">
         <v>677</v>
       </c>
+      <c r="C343" s="6">
+        <v>1</v>
+      </c>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
+      <c r="F343" s="6"/>
+      <c r="G343" s="6"/>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
@@ -8511,29 +8868,50 @@
         <v>687</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
-      <c r="A349" s="1" t="s">
+    <row r="349" spans="1:7">
+      <c r="A349" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="B349" s="5" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" s="1" t="s">
+      <c r="C349" s="6">
+        <v>1</v>
+      </c>
+      <c r="D349" s="6"/>
+      <c r="E349" s="6"/>
+      <c r="F349" s="6"/>
+      <c r="G349" s="6"/>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B350" s="5" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" s="1" t="s">
+      <c r="C350" s="6">
+        <v>1</v>
+      </c>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+      <c r="F350" s="6"/>
+      <c r="G350" s="6"/>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="B351" s="5" t="s">
         <v>693</v>
       </c>
+      <c r="C351" s="6">
+        <v>1</v>
+      </c>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+      <c r="F351" s="6"/>
+      <c r="G351" s="6"/>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="4" t="s">
@@ -8558,37 +8936,65 @@
         <v>697</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="1" t="s">
+    <row r="354" spans="1:7">
+      <c r="A354" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B354" s="5" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" s="1" t="s">
+      <c r="C354" s="6">
+        <v>1</v>
+      </c>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
+      <c r="G354" s="6"/>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B355" s="5" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" s="1" t="s">
+      <c r="C355" s="6">
+        <v>1</v>
+      </c>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
+      <c r="G355" s="6"/>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B356" s="5" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" s="1" t="s">
+      <c r="C356" s="6">
+        <v>1</v>
+      </c>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6"/>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="B357" s="5" t="s">
         <v>705</v>
       </c>
+      <c r="C357" s="6">
+        <v>1</v>
+      </c>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+      <c r="F357" s="6"/>
+      <c r="G357" s="6"/>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
@@ -8630,29 +9036,50 @@
         <v>715</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
-      <c r="A363" s="1" t="s">
+    <row r="363" spans="1:7">
+      <c r="A363" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B363" s="5" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" s="1" t="s">
+      <c r="C363" s="6">
+        <v>1</v>
+      </c>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
+      <c r="F363" s="6"/>
+      <c r="G363" s="6"/>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="B364" s="5" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" s="1" t="s">
+      <c r="C364" s="6">
+        <v>1</v>
+      </c>
+      <c r="D364" s="6"/>
+      <c r="E364" s="6"/>
+      <c r="F364" s="6"/>
+      <c r="G364" s="6"/>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="B365" s="5" t="s">
         <v>721</v>
       </c>
+      <c r="C365" s="6">
+        <v>1</v>
+      </c>
+      <c r="D365" s="6"/>
+      <c r="E365" s="6"/>
+      <c r="F365" s="6"/>
+      <c r="G365" s="6"/>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="4" t="s">
@@ -8677,37 +9104,65 @@
         <v>725</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
-      <c r="A368" s="1" t="s">
+    <row r="368" spans="1:7">
+      <c r="A368" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="B368" s="5" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" s="1" t="s">
+      <c r="C368" s="6">
+        <v>1</v>
+      </c>
+      <c r="D368" s="6"/>
+      <c r="E368" s="6"/>
+      <c r="F368" s="6"/>
+      <c r="G368" s="6"/>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="B369" s="5" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" s="1" t="s">
+      <c r="C369" s="6">
+        <v>1</v>
+      </c>
+      <c r="D369" s="6"/>
+      <c r="E369" s="6"/>
+      <c r="F369" s="6"/>
+      <c r="G369" s="6"/>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="B370" s="5" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" s="1" t="s">
+      <c r="C370" s="6">
+        <v>1</v>
+      </c>
+      <c r="D370" s="6"/>
+      <c r="E370" s="6"/>
+      <c r="F370" s="6"/>
+      <c r="G370" s="6"/>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="B371" s="5" t="s">
         <v>733</v>
       </c>
+      <c r="C371" s="6">
+        <v>1</v>
+      </c>
+      <c r="D371" s="6"/>
+      <c r="E371" s="6"/>
+      <c r="F371" s="6"/>
+      <c r="G371" s="6"/>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
@@ -8749,29 +9204,50 @@
         <v>743</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
-      <c r="A377" s="1" t="s">
+    <row r="377" spans="1:7">
+      <c r="A377" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="B377" s="5" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" s="1" t="s">
+      <c r="C377" s="6">
+        <v>1</v>
+      </c>
+      <c r="D377" s="6"/>
+      <c r="E377" s="6"/>
+      <c r="F377" s="6"/>
+      <c r="G377" s="6"/>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="B378" s="5" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" s="1" t="s">
+      <c r="C378" s="6">
+        <v>1</v>
+      </c>
+      <c r="D378" s="6"/>
+      <c r="E378" s="6"/>
+      <c r="F378" s="6"/>
+      <c r="G378" s="6"/>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="B379" s="5" t="s">
         <v>749</v>
       </c>
+      <c r="C379" s="6">
+        <v>1</v>
+      </c>
+      <c r="D379" s="6"/>
+      <c r="E379" s="6"/>
+      <c r="F379" s="6"/>
+      <c r="G379" s="6"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="4" t="s">

--- a/module/oi/oi_媒体资源重命名/资源导入记录表.xlsx
+++ b/module/oi/oi_媒体资源重命名/资源导入记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="895">
   <si>
     <t>旧名字</t>
   </si>
@@ -230,12 +230,6 @@
     <t>Char_Skill_C01_Ult</t>
   </si>
   <si>
-    <t>Skill_Munin_TwinBlade_Ultimate_End</t>
-  </si>
-  <si>
-    <t>Char_Skill_C01_Ult_End</t>
-  </si>
-  <si>
     <t>Skill_Munin_TwinBlade_StepCounter</t>
   </si>
   <si>
@@ -353,12 +347,12 @@
     <t>Char_Skill_C02_Atk3</t>
   </si>
   <si>
+    <t>Char_Skill_C02_Atk4</t>
+  </si>
+  <si>
     <t>Skill_Gratia_Attack4</t>
   </si>
   <si>
-    <t>Char_Skill_C02_Atk4</t>
-  </si>
-  <si>
     <t>Skill_Gratia_Attack5</t>
   </si>
   <si>
@@ -431,192 +425,216 @@
     <t>Char_Skill_C02_Focus_Atk3</t>
   </si>
   <si>
+    <t>Skill_Gratia_SkyAttack_Start</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_SkyAtk_Start</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_SkyAttack_End</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_SkyAtk_End</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_EnterStrafe</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Enter</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_ExitStrafe</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Exit</t>
+  </si>
+  <si>
+    <t>旧资源命名为Skill_Gratia_Shiled_DefenseEnd</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_Shake</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Shake</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_DefenseRebound</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Defense_Atk</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_DefenseCounterAtk2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Counter_Atk1</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_DefenseCounterAtk3</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Counter_Atk2</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_DefenseHit</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Defense_Hit</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Shiled_DefenseBreak</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Strafe_Defense_Break</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Hook_LaunchGrapple_F</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hook_Launch_F</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Hook_LaunchGrapple_B</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hook_Launch_B</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HookSuc_F</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hook_Suc_F</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HookSuc_D</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hook_Suc_D</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HookFly</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hook_Fly</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_HookFail</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Hook_Fail</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution1_Pre</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu1_Pre</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution1_Pre_Far</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu1_Pre_Far</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Eexecution1_Pre_Far</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution1_Pre_Hook</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu1_Pre_Hook</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Eexecution1_Pre_Hook</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution1_Pre_Far_Hook</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu1_Pre_Far_Hook</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Eexecution1_Pre_Far_Hook</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution1</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu1</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Eexecution1</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution2_Start</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu2_Start</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Eexecution2_Start</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution2_Loop</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu2_LP</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution2_End</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu2_End</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Eexecution2_End</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Execution2_End_SP</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Execu2_End_Sp</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Eexecution2_End_SP</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_Skill2</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Ult</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_StepCounter</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Counter</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_StepCounter_ATK</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Counter_Lit</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_StepSpecialCounter_ATK</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Counter_Hvy</t>
+  </si>
+  <si>
+    <t>Skill_Gratia_StepSpecialCounter_B</t>
+  </si>
+  <si>
+    <t>Char_Skill_C02_Counter_Sp_Atk</t>
+  </si>
+  <si>
     <t>Skill_Gratia_RushAttack</t>
   </si>
   <si>
     <t>Char_Skill_C02_Atk_Rush</t>
   </si>
   <si>
-    <t>Skill_Gratia_SkyAttack_Start</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_SkyAtk_Start</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_SkyAttack_End</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_SkyAtk_End</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Shiled_EnterStrafe</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Strafe_Enter</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Shiled_ExitStrafe</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Strafe_Exit</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Shiled_Shake</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Strafe_Shake</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Shiled_DefenseRebound</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Strafe_Defense_Atk</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Shiled_DefenseCounterAtk2</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Strafe_Counter_Atk2</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Shiled_DefenseCounterAtk3</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Strafe_Counter_Atk3</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Shiled_DefenseHit</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Strafe_Defense_Hit</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Shiled_DefenseBreak</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Strafe_Defense_Break</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Hook_LaunchGrapple_F</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Hook_Launch_F</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Hook_LaunchGrapple_B</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Hook_Launch_B</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_HookSuc_F</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Hook_Suc_F</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_HookSuc_D</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Hook_Suc_D</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_HookFly</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Hook_Fly</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_HookFail</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Hook_Fail</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Execution1_Pre</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Execu1_Pre</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Execution1_Pre_Far</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Execu1_Pre_Far</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Execution1_Pre_Hook</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Execu1_Pre_Hook</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Execution1_Pre_Far_Hook</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Execu1_Pre_Far_Hook</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Execution1</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Execu1</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Execution2_Start</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Execu2_Start</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Execution2_Loop</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Execu2_LP</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Execution2_End</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Execu2_End</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Execution2_End_SP</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Execu2_End_Sp</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_Skill2</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Ult</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_StepCounter</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Counter</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_StepCounter_ATK</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Counter_Lit</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_StepSpecialCounter_ATK</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Counter_Hvy</t>
-  </si>
-  <si>
-    <t>Skill_Gratia_StepSpecialCounter_B</t>
-  </si>
-  <si>
-    <t>Char_Skill_C02_Counter_Sp_Atk</t>
-  </si>
-  <si>
     <t>Skill_Gratia_Dodge</t>
   </si>
   <si>
@@ -743,36 +761,18 @@
     <t>Char_Skill_C03_Focus_Atk1</t>
   </si>
   <si>
-    <t>Skill_Alf_FocusAttack1_Exp_Small</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Focus_Atk1_Exp_Lit</t>
-  </si>
-  <si>
     <t>Skill_Alf_FocusAttack2</t>
   </si>
   <si>
     <t>Char_Skill_C03_Focus_Atk2</t>
   </si>
   <si>
-    <t>Skill_Alf_FocusAttack2_Exp_Mid</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Focus_Atk2_Exp_Mid</t>
-  </si>
-  <si>
     <t>Skill_Alf_FocusAttack3</t>
   </si>
   <si>
     <t>Char_Skill_C03_Focus_Atk3</t>
   </si>
   <si>
-    <t>Skill_Alf_FocusAttack3_Exp_Large</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Focus_Atk3_Exp_Hvy</t>
-  </si>
-  <si>
     <t>Skill_Alf_FocusLoop_Keep</t>
   </si>
   <si>
@@ -839,30 +839,6 @@
     <t>Char_Skill_C03_Execu2</t>
   </si>
   <si>
-    <t>Skill_Alf_Execution3</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Execu3</t>
-  </si>
-  <si>
-    <t>Skill_Alf_Execution1_Pre_Hook</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Execu1_Pre_Hook</t>
-  </si>
-  <si>
-    <t>Skill_Alf_Execution1_Pre_Close</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Execu1_Pre_Cls</t>
-  </si>
-  <si>
-    <t>Skill_Alf_Execution1_Pre</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Execu1_Pre</t>
-  </si>
-  <si>
     <t>Skill_Alf_Execution1</t>
   </si>
   <si>
@@ -911,12 +887,6 @@
     <t>Char_Skill_C03_Ult_End</t>
   </si>
   <si>
-    <t>Skill_Alf_FlameGun_StrafeEnd</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Strafe_End</t>
-  </si>
-  <si>
     <t>Skill_Alf_EnterBattle</t>
   </si>
   <si>
@@ -929,66 +899,6 @@
     <t>Char_Skill_C03_Battle_Exit</t>
   </si>
   <si>
-    <t>Skill_Alf_ShotGun_HitFly</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Hit_Fly</t>
-  </si>
-  <si>
-    <t>Skill_Alf_ShotGun_HitFlyEnd</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Hit_Fly_End</t>
-  </si>
-  <si>
-    <t>Skill_Alf_ShotGun_HitWall</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Hit_Wall</t>
-  </si>
-  <si>
-    <t>Skill_Alf_ShotGun_HitWallFalllingEnd</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Hit_Wall_End</t>
-  </si>
-  <si>
-    <t>Skill_Alf_ShotGun_Death</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Death</t>
-  </si>
-  <si>
-    <t>Skill_Alf_ShotGun_HitDeath</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Hit_Death_Grd</t>
-  </si>
-  <si>
-    <t>Skill_Alf_ShotGun_FallingStart</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Hit_Fall_Start</t>
-  </si>
-  <si>
-    <t>Skill_Alf_ShotGun_FallingEnd</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Hit_Fall_End</t>
-  </si>
-  <si>
-    <t>Skill_Alf_ShotGun_HeavyHit</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Hit_Hvy</t>
-  </si>
-  <si>
-    <t>Skill_Alf_ShotGun_HitDeath_Back</t>
-  </si>
-  <si>
-    <t>Char_Skill_C03_Hit_Death_B</t>
-  </si>
-  <si>
     <t>Skill_Boss_AshleyOnCar_LShotGun_AimStart</t>
   </si>
   <si>
@@ -1061,12 +971,6 @@
     <t>Mon_Boss_Part_B01_Car_Trample_Move_LP</t>
   </si>
   <si>
-    <t>Skill_Boss_Ashley_Carriage_TrampleMoveStart</t>
-  </si>
-  <si>
-    <t>Mon_Boss_Part_B01_Car_Trample_Move_Start</t>
-  </si>
-  <si>
     <t>Skill_Boss_Ashley_Carriage_TrampleEnd</t>
   </si>
   <si>
@@ -1367,12 +1271,6 @@
     <t>Mon_Boss_Part_B01_Pumpkin_Door_Hit</t>
   </si>
   <si>
-    <t>Skill_Boss_Ashley_PumpkinCar_CoreSilent</t>
-  </si>
-  <si>
-    <t>Mon_Boss_Part_B01_Pumpkin_Core_Silent</t>
-  </si>
-  <si>
     <t>Skill_Boss_Ashley_PumpkinCar_CoreActive</t>
   </si>
   <si>
@@ -1562,21 +1460,15 @@
     <t>Mon_Boss_Shout_B01_Execu</t>
   </si>
   <si>
-    <t>Mon_Boss_Shout_B01_Execu_Parried</t>
-  </si>
-  <si>
-    <t>Mon_Boss_Shout_B01_Hit</t>
-  </si>
-  <si>
-    <t>Mon_Boss_Shout_B01_Hit_Hvy</t>
-  </si>
-  <si>
     <t>Skill_Boss_Ashley_Coffin_Drop</t>
   </si>
   <si>
     <t>Mon_Boss_Part_B01_Coffin_Drop</t>
   </si>
   <si>
+    <t>Imp_Armor_Wood_01到05做随机</t>
+  </si>
+  <si>
     <t>Skill_Boss_AshleyGround_Foot_KnightKick</t>
   </si>
   <si>
@@ -1628,12 +1520,6 @@
     <t>Mon_Mob_Skill_M01_Step</t>
   </si>
   <si>
-    <t>Mon_Werewolf_Stun</t>
-  </si>
-  <si>
-    <t>Mon_Mob_Skill_M01_Stun</t>
-  </si>
-  <si>
     <t>Mon_Werewolf_Hit_Die</t>
   </si>
   <si>
@@ -1688,12 +1574,6 @@
     <t>Mon_Mob_Foley_M01_Run</t>
   </si>
   <si>
-    <t>Mon_Werewolf_Gen_Walk</t>
-  </si>
-  <si>
-    <t>Mon_Mob_Foley_M01_Walk</t>
-  </si>
-  <si>
     <t>Mon_Werewolf_Gen_FallDie</t>
   </si>
   <si>
@@ -1868,6 +1748,9 @@
     <t>Mon_Mob_Skill_M02_Atk6</t>
   </si>
   <si>
+    <t>Mon_Mob_Skill_M02_Atk6_Crawl暂代</t>
+  </si>
+  <si>
     <t>Mon_Candleman_Atk6_Crawl</t>
   </si>
   <si>
@@ -2075,12 +1958,6 @@
     <t>Char_Mov_Gen_HHeel_Slide_Gen_Dev</t>
   </si>
   <si>
-    <t>Player_FS_HighHeel_Gen_Slide_Stop</t>
-  </si>
-  <si>
-    <t>Char_Mov_Gen_HHeel_Slide_Gen_Stop</t>
-  </si>
-  <si>
     <t>Player_FS_HighHeel_Dirt_Squat</t>
   </si>
   <si>
@@ -2159,12 +2036,6 @@
     <t>Char_Mov_Gen_Boot_Slide_Gen_Dev</t>
   </si>
   <si>
-    <t>Player_FS_HeelBoots_Gen_Slide_Stop</t>
-  </si>
-  <si>
-    <t>Char_Mov_Gen_Boot_Slide_Gen_Stop</t>
-  </si>
-  <si>
     <t>Player_FS_HeelBoots_Dirt_Squat</t>
   </si>
   <si>
@@ -2195,6 +2066,42 @@
     <t>Char_Mov_Gen_Boot_Fall_Dirt_Lit</t>
   </si>
   <si>
+    <t>Char_Mov_Gen_MJ_Walk_Dirt</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_MJ_Walk_Rock</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_MJ_Run_Dirt</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_MJ_Sprint_Dirt</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_MJ_End_Dirt</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_MJ_Slide_Gen</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_MJ_Slide_Gen_Dev</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_MJ_Squat_Dirt</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_MJ_Climb_Gen</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_MJ_Jump_Dirt</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_MJ_Fall_Dirt_Hvy</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_MJ_Fall_Dirt_Lit</t>
+  </si>
+  <si>
     <t>Player_FS_StilettoHeel_Dirt_Walk_01</t>
   </si>
   <si>
@@ -2243,12 +2150,6 @@
     <t>Char_Mov_Gen_SHeel_Slide_Gen_Dev</t>
   </si>
   <si>
-    <t>Player_FS_StilettoHeel_Gen_Slide_Stop</t>
-  </si>
-  <si>
-    <t>Char_Mov_Gen_SHeel_Slide_Gen_Stop</t>
-  </si>
-  <si>
     <t>Player_FS_StilettoHeel_Dirt_Squat</t>
   </si>
   <si>
@@ -2297,12 +2198,6 @@
     <t>Sys_Show_C04_Def_Enter_Pose03_01</t>
   </si>
   <si>
-    <t>Show_CynthiDefault_EnterPose03_02</t>
-  </si>
-  <si>
-    <t>Sys_Show_C04_Def_Enter_Pose03_02</t>
-  </si>
-  <si>
     <t>Show_CynthiDefault_EnterPose03_03</t>
   </si>
   <si>
@@ -2375,12 +2270,6 @@
     <t>Sys_Show_C04_Def_Exit_Pose03_05</t>
   </si>
   <si>
-    <t>Show_CynthiDefault_ExitPose03_06</t>
-  </si>
-  <si>
-    <t>Sys_Show_C04_Def_Exit_Pose03_06</t>
-  </si>
-  <si>
     <t>Show_CynthiDefault_ExitPose04</t>
   </si>
   <si>
@@ -2585,12 +2474,6 @@
     <t>Sys_Show_C03_Def_Enter_Pose05_01</t>
   </si>
   <si>
-    <t>Show_AlfDefault_EnterPose05_02</t>
-  </si>
-  <si>
-    <t>Sys_Show_C03_Def_Enter_Pose05_02</t>
-  </si>
-  <si>
     <t>Show_AlfDefault_EnterPose06</t>
   </si>
   <si>
@@ -2823,6 +2706,12 @@
   </si>
   <si>
     <t>Sys_Show_C01_Def_Exit_Pose06</t>
+  </si>
+  <si>
+    <t>Show_MuninDefault_IdlePose02_01</t>
+  </si>
+  <si>
+    <t>Sys_Show_C01_Def_Idle_Pose02_01</t>
   </si>
 </sst>
 </file>
@@ -2835,10 +2724,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3206,7 +3102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3226,6 +3122,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3347,16 +3258,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -3365,119 +3273,122 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3489,11 +3400,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4019,10 +3931,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G470"/>
+  <dimension ref="A1:G451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="C401" sqref="C401"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E448" sqref="E448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4031,7 +3945,7 @@
     <col min="2" max="2" width="48.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.75" style="2" customWidth="1"/>
   </cols>
@@ -4149,65 +4063,49 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
@@ -4270,19 +4168,19 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4"/>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
@@ -4540,42 +4438,45 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="5" t="s">
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="E35" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
@@ -4682,65 +4583,77 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
@@ -4757,27 +4670,23 @@
       </c>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4"/>
+      <c r="E51" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -4817,110 +4726,82 @@
       </c>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4">
-        <v>1</v>
-      </c>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="4" t="s">
+      <c r="E55" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="4" t="s">
+      <c r="E56" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="4" t="s">
+      <c r="E57" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="4" t="s">
+      <c r="E58" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="4" t="s">
+      <c r="E59" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="4" t="s">
+      <c r="E60" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4"/>
+      <c r="E61" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
@@ -4997,7 +4878,7 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" ht="14.25" spans="1:7">
       <c r="A67" s="4" t="s">
         <v>136</v>
       </c>
@@ -5012,27 +4893,23 @@
       </c>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="4" t="s">
+    <row r="68" ht="14.25" spans="1:5">
+      <c r="A68" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4">
-        <v>1</v>
-      </c>
-      <c r="G68" s="4"/>
+      <c r="E68" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -5042,20 +4919,27 @@
       </c>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="1:7">
+      <c r="A70" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="B70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -5067,10 +4951,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -5082,10 +4966,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -5097,10 +4981,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -5110,162 +4994,207 @@
       </c>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="4" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4">
-        <v>1</v>
-      </c>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="4" t="s">
+      <c r="B75" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4">
-        <v>1</v>
-      </c>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="B76" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>158</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>160</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>162</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>164</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>166</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>168</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>171</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>174</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>177</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>180</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>183</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -5277,10 +5206,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -5292,10 +5221,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -5307,10 +5236,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -5321,56 +5250,56 @@
       <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4">
-        <v>1</v>
-      </c>
-      <c r="G96" s="4"/>
+      <c r="A96" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C97" s="6">
-        <v>1</v>
-      </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" s="6">
-        <v>1</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+      <c r="A98" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -5380,89 +5309,101 @@
       </c>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4">
-        <v>1</v>
-      </c>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="1:2">
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>213</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4">
-        <v>1</v>
-      </c>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="5">
+        <v>1</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C106" s="6">
-        <v>1</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
+      <c r="A106" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -5474,10 +5415,10 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -5489,10 +5430,10 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -5504,10 +5445,10 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -5519,10 +5460,10 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -5534,10 +5475,10 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -5549,10 +5490,10 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -5564,10 +5505,10 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -5579,10 +5520,10 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -5594,10 +5535,10 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -5609,10 +5550,10 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -5623,26 +5564,26 @@
       <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C118" s="6">
-        <v>1</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
+      <c r="A118" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4">
+        <v>1</v>
+      </c>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -5653,28 +5594,32 @@
       <c r="G119" s="4"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C120" s="6">
-        <v>1</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
+      <c r="A120" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" s="4">
+        <v>1</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4">
+        <v>1</v>
+      </c>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C121" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1</v>
+      </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4">
@@ -5684,25 +5629,25 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="5" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C122" s="6">
-        <v>1</v>
-      </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
+        <v>255</v>
+      </c>
+      <c r="C122" s="5">
+        <v>1</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -5714,14 +5659,12 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C124" s="4">
-        <v>1</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4">
@@ -5731,14 +5674,12 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C125" s="4">
-        <v>1</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4">
@@ -5747,26 +5688,26 @@
       <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C126" s="6">
-        <v>1</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
+      <c r="A126" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+      <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -5777,26 +5718,26 @@
       <c r="G127" s="4"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4">
-        <v>1</v>
-      </c>
-      <c r="G128" s="4"/>
+      <c r="A128" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" s="5">
+        <v>1</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -5808,10 +5749,10 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -5822,41 +5763,37 @@
       <c r="G130" s="4"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4">
-        <v>1</v>
-      </c>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C132" s="6">
-        <v>1</v>
-      </c>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
+      <c r="A131" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" s="5">
+        <v>1</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -5868,10 +5805,10 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -5883,10 +5820,10 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -5898,10 +5835,10 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -5913,10 +5850,10 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -5928,10 +5865,10 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -5942,49 +5879,56 @@
       <c r="G138" s="4"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C139" s="6">
-        <v>1</v>
-      </c>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="A139" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4">
+        <v>1</v>
+      </c>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4">
+        <v>1</v>
+      </c>
+      <c r="G140" s="4"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4">
-        <v>1</v>
-      </c>
-      <c r="G141" s="4"/>
+      <c r="A141" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C141" s="5">
+        <v>1</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -5996,10 +5940,10 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -6011,10 +5955,10 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -6026,10 +5970,10 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -6041,10 +5985,10 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -6056,10 +6000,10 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -6071,10 +6015,10 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -6086,10 +6030,10 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -6101,10 +6045,10 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -6116,10 +6060,10 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -6131,10 +6075,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -6146,10 +6090,10 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="4" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -6161,10 +6105,10 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -6176,10 +6120,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -6191,10 +6135,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -6206,10 +6150,10 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -6221,10 +6165,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -6236,10 +6180,10 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -6251,10 +6195,10 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -6266,10 +6210,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -6281,10 +6225,10 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -6296,10 +6240,10 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -6311,10 +6255,10 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -6326,10 +6270,10 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -6341,10 +6285,10 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -6356,10 +6300,10 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -6371,10 +6315,10 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -6386,10 +6330,10 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -6401,10 +6345,10 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -6414,20 +6358,27 @@
       </c>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>345</v>
-      </c>
+    <row r="171" spans="1:7">
+      <c r="A171" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4">
+        <v>1</v>
+      </c>
+      <c r="G171" s="4"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -6439,10 +6390,10 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="4" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -6454,10 +6405,10 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -6469,10 +6420,10 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -6484,10 +6435,10 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="4" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -6499,10 +6450,10 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="4" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -6514,10 +6465,10 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="4" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -6529,10 +6480,10 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="4" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -6544,10 +6495,10 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="4" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -6559,10 +6510,10 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="4" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -6574,10 +6525,10 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="4" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -6589,10 +6540,10 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="4" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -6604,10 +6555,10 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="4" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -6619,10 +6570,10 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="4" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -6634,10 +6585,10 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="4" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -6649,10 +6600,10 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="4" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -6664,10 +6615,10 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="4" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -6679,10 +6630,10 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="4" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -6694,10 +6645,10 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -6709,10 +6660,10 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -6724,10 +6675,10 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="4" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -6739,10 +6690,10 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="4" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -6754,10 +6705,10 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="4" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -6769,10 +6720,10 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="4" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -6784,10 +6735,10 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="4" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -6799,10 +6750,10 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="4" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -6814,10 +6765,10 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="4" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -6829,10 +6780,10 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="4" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -6844,10 +6795,10 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="4" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -6859,10 +6810,10 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="4" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -6874,10 +6825,10 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="4" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -6889,10 +6840,10 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="4" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -6904,10 +6855,10 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="4" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -6919,10 +6870,10 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="4" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -6934,10 +6885,10 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="4" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -6949,10 +6900,10 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="4" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -6964,10 +6915,10 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="4" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -6979,10 +6930,10 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="4" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -6994,10 +6945,10 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="4" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -7009,10 +6960,10 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="4" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -7022,27 +6973,23 @@
       </c>
       <c r="G211" s="4"/>
     </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="4">
-        <v>1</v>
-      </c>
-      <c r="G212" s="4"/>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D212" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="4" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -7054,10 +7001,10 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="4" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -7069,10 +7016,10 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="4" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -7084,10 +7031,10 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="4" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -7099,10 +7046,10 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="4" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -7114,10 +7061,10 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="4" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -7129,10 +7076,10 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="4" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -7144,10 +7091,10 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="4" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -7159,10 +7106,10 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="4" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -7174,10 +7121,10 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="4" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -7189,10 +7136,10 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="4" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -7204,10 +7151,10 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="4" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -7219,10 +7166,10 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="4" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -7232,185 +7179,158 @@
       </c>
       <c r="G225" s="4"/>
     </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="4"/>
-      <c r="F226" s="4">
-        <v>1</v>
-      </c>
-      <c r="G226" s="4"/>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="4">
-        <v>1</v>
-      </c>
-      <c r="G227" s="4"/>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4">
-        <v>1</v>
-      </c>
-      <c r="G228" s="4"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="4">
-        <v>1</v>
-      </c>
-      <c r="G229" s="4"/>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D227" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D228" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D229" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="4">
-        <v>1</v>
-      </c>
-      <c r="G230" s="4"/>
+      <c r="A230" s="6"/>
+      <c r="B230" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="4">
-        <v>1</v>
-      </c>
-      <c r="G231" s="4"/>
+      <c r="A231" s="6"/>
+      <c r="B231" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="4"/>
-      <c r="F232" s="4">
-        <v>1</v>
-      </c>
-      <c r="G232" s="4"/>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>469</v>
+      <c r="A232" s="6"/>
+      <c r="B232" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="6"/>
+      <c r="B233" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="4"/>
-      <c r="F234" s="4">
-        <v>1</v>
-      </c>
-      <c r="G234" s="4"/>
+      <c r="A234" s="6"/>
+      <c r="B234" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="4"/>
-      <c r="F235" s="4">
-        <v>1</v>
-      </c>
-      <c r="G235" s="4"/>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="B236" s="4" t="s">
+      <c r="A235" s="6"/>
+      <c r="B235" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="4"/>
-      <c r="F236" s="4">
-        <v>1</v>
-      </c>
-      <c r="G236" s="4"/>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="4" t="s">
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" ht="14.25" spans="1:7">
+      <c r="A236" s="6"/>
+      <c r="B236" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25" spans="1:5">
+      <c r="A237" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="4">
-        <v>1</v>
-      </c>
-      <c r="G237" s="4"/>
+      <c r="B237" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -7421,11 +7341,9 @@
       <c r="G238" s="4"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="4" t="s">
-        <v>480</v>
-      </c>
+      <c r="A239" s="4"/>
       <c r="B239" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -7433,14 +7351,16 @@
       <c r="F239" s="4">
         <v>1</v>
       </c>
-      <c r="G239" s="4"/>
+      <c r="G239" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -7450,27 +7370,23 @@
       </c>
       <c r="G240" s="4"/>
     </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B241" s="4" t="s">
+    <row r="241" spans="1:4">
+      <c r="A241" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="4"/>
-      <c r="F241" s="4">
-        <v>1</v>
-      </c>
-      <c r="G241" s="4"/>
+      <c r="B241" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D241" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -7482,10 +7398,10 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -7497,10 +7413,10 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -7512,10 +7428,10 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -7526,423 +7442,466 @@
       <c r="G245" s="4"/>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B246" s="4" t="s">
+      <c r="A246" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="4"/>
-      <c r="F246" s="4">
-        <v>1</v>
-      </c>
-      <c r="G246" s="4"/>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="1" t="s">
+      <c r="B246" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C246" s="5">
+        <v>1</v>
+      </c>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="4" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="248" spans="1:2">
+      <c r="B247" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4">
+        <v>1</v>
+      </c>
+      <c r="G247" s="4"/>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>500</v>
+      </c>
+      <c r="D248" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>502</v>
+      </c>
+      <c r="D249" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
+      </c>
+      <c r="D250" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="7"/>
-      <c r="B251" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C251" s="7"/>
-      <c r="D251" s="7"/>
-      <c r="E251" s="7"/>
-      <c r="F251" s="7"/>
-      <c r="G251" s="7">
-        <v>1</v>
-      </c>
+      <c r="A251" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4">
+        <v>1</v>
+      </c>
+      <c r="G251" s="4"/>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="7"/>
-      <c r="B252" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C252" s="7"/>
-      <c r="D252" s="7"/>
-      <c r="E252" s="7"/>
-      <c r="F252" s="7"/>
-      <c r="G252" s="7">
-        <v>1</v>
-      </c>
+      <c r="A252" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C252" s="5">
+        <v>1</v>
+      </c>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="7"/>
-      <c r="B253" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C253" s="7"/>
-      <c r="D253" s="7"/>
-      <c r="E253" s="7"/>
-      <c r="F253" s="7"/>
-      <c r="G253" s="7">
-        <v>1</v>
-      </c>
+      <c r="A253" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C253" s="5">
+        <v>1</v>
+      </c>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="7"/>
-      <c r="B254" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="C254" s="7"/>
-      <c r="D254" s="7"/>
-      <c r="E254" s="7"/>
-      <c r="F254" s="7"/>
-      <c r="G254" s="7">
-        <v>1</v>
-      </c>
+      <c r="A254" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4">
+        <v>1</v>
+      </c>
+      <c r="G254" s="4"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="7"/>
-      <c r="B255" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="C255" s="7"/>
-      <c r="D255" s="7"/>
-      <c r="E255" s="7"/>
-      <c r="F255" s="7"/>
-      <c r="G255" s="7">
-        <v>1</v>
-      </c>
+      <c r="A255" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C255" s="5">
+        <v>1</v>
+      </c>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="7"/>
-      <c r="B256" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C256" s="7"/>
-      <c r="D256" s="7"/>
-      <c r="E256" s="7"/>
-      <c r="F256" s="7"/>
-      <c r="G256" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="7"/>
-      <c r="B257" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="C257" s="7"/>
-      <c r="D257" s="7"/>
-      <c r="E257" s="7"/>
-      <c r="F257" s="7"/>
-      <c r="G257" s="7">
+      <c r="A256" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C256" s="5">
+        <v>1</v>
+      </c>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D257" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="7"/>
-      <c r="B258" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C258" s="7"/>
-      <c r="D258" s="7"/>
-      <c r="E258" s="7"/>
-      <c r="F258" s="7"/>
-      <c r="G258" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="7"/>
-      <c r="B259" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="C259" s="7"/>
-      <c r="D259" s="7"/>
-      <c r="E259" s="7"/>
-      <c r="F259" s="7"/>
-      <c r="G259" s="7">
+      <c r="A258" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C258" s="5">
+        <v>1</v>
+      </c>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D259" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="7"/>
-      <c r="B260" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="C260" s="7"/>
-      <c r="D260" s="7"/>
-      <c r="E260" s="7"/>
-      <c r="F260" s="7"/>
-      <c r="G260" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4"/>
-      <c r="F262" s="4">
-        <v>1</v>
-      </c>
-      <c r="G262" s="4"/>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="4"/>
-      <c r="B263" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="4"/>
-      <c r="F263" s="4">
-        <v>1</v>
-      </c>
-      <c r="G263" s="4">
+      <c r="A260" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C260" s="5">
+        <v>1</v>
+      </c>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C261" s="5">
+        <v>1</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D262" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D263" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
-      <c r="E264" s="4"/>
-      <c r="F264" s="4">
-        <v>1</v>
-      </c>
-      <c r="G264" s="4"/>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>522</v>
-      </c>
+      <c r="A264" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C264" s="5">
+        <v>1</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C265" s="5">
+        <v>1</v>
+      </c>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4">
-        <v>1</v>
-      </c>
-      <c r="G266" s="4"/>
+      <c r="A266" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C266" s="5">
+        <v>1</v>
+      </c>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4">
-        <v>1</v>
-      </c>
-      <c r="G267" s="4"/>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="4">
-        <v>1</v>
-      </c>
-      <c r="G268" s="4"/>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="4">
-        <v>1</v>
-      </c>
-      <c r="G269" s="4"/>
+      <c r="A267" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C267" s="5">
+        <v>1</v>
+      </c>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D268" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D269" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="5" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="C270" s="6">
-        <v>1</v>
-      </c>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-      <c r="F270" s="6"/>
-      <c r="G270" s="6"/>
+        <v>544</v>
+      </c>
+      <c r="C270" s="5">
+        <v>1</v>
+      </c>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="4">
-        <v>1</v>
-      </c>
-      <c r="G271" s="4"/>
+      <c r="A271" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C271" s="5">
+        <v>1</v>
+      </c>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4">
-        <v>1</v>
-      </c>
-      <c r="G272" s="4"/>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+      <c r="A272" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C272" s="5">
+        <v>1</v>
+      </c>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C273" s="5">
+        <v>1</v>
+      </c>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>542</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D274" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C275" s="5">
+        <v>1</v>
+      </c>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4">
-        <v>1</v>
-      </c>
-      <c r="G276" s="4"/>
+      <c r="A276" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C276" s="5">
+        <v>1</v>
+      </c>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="5" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="C277" s="6">
-        <v>1</v>
-      </c>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
-      <c r="F277" s="6"/>
-      <c r="G277" s="6"/>
+        <v>558</v>
+      </c>
+      <c r="C277" s="5">
+        <v>1</v>
+      </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="C278" s="6">
-        <v>1</v>
-      </c>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-      <c r="F278" s="6"/>
-      <c r="G278" s="6"/>
+      <c r="A278" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4"/>
+      <c r="F278" s="4">
+        <v>1</v>
+      </c>
+      <c r="G278" s="4"/>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="4" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -7953,307 +7912,340 @@
       <c r="G279" s="4"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="C280" s="6">
-        <v>1</v>
-      </c>
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
-      <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
+      <c r="A280" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
+      <c r="E280" s="4"/>
+      <c r="F280" s="4">
+        <v>1</v>
+      </c>
+      <c r="G280" s="4"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C281" s="6">
-        <v>1</v>
-      </c>
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
-      <c r="F281" s="6"/>
-      <c r="G281" s="6"/>
+      <c r="A281" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="4"/>
+      <c r="F281" s="4">
+        <v>1</v>
+      </c>
+      <c r="G281" s="4"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="C282" s="6">
-        <v>1</v>
-      </c>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
-      <c r="F282" s="6"/>
-      <c r="G282" s="6"/>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="C284" s="6">
-        <v>1</v>
-      </c>
-      <c r="D284" s="6"/>
-      <c r="E284" s="6"/>
-      <c r="F284" s="6"/>
-      <c r="G284" s="6"/>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="A282" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4"/>
+      <c r="F282" s="4">
+        <v>1</v>
+      </c>
+      <c r="G282" s="4"/>
+    </row>
+    <row r="283" ht="14.25" spans="1:7">
+      <c r="A283" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+      <c r="E283" s="4"/>
+      <c r="F283" s="4">
+        <v>1</v>
+      </c>
+      <c r="G283" s="4"/>
+    </row>
+    <row r="284" ht="14.25" spans="1:5">
+      <c r="A284" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4"/>
+      <c r="F285" s="4">
+        <v>1</v>
+      </c>
+      <c r="G285" s="4"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="C286" s="6">
-        <v>1</v>
-      </c>
-      <c r="D286" s="6"/>
-      <c r="E286" s="6"/>
-      <c r="F286" s="6"/>
-      <c r="G286" s="6"/>
+      <c r="A286" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4"/>
+      <c r="F286" s="4">
+        <v>1</v>
+      </c>
+      <c r="G286" s="4"/>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="C287" s="6">
-        <v>1</v>
-      </c>
-      <c r="D287" s="6"/>
-      <c r="E287" s="6"/>
-      <c r="F287" s="6"/>
-      <c r="G287" s="6"/>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+      <c r="A287" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4"/>
+      <c r="F287" s="4">
+        <v>1</v>
+      </c>
+      <c r="G287" s="4"/>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C288" s="5">
+        <v>1</v>
+      </c>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>570</v>
+        <v>583</v>
+      </c>
+      <c r="D289" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="5" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="C290" s="6">
-        <v>1</v>
-      </c>
-      <c r="D290" s="6"/>
-      <c r="E290" s="6"/>
-      <c r="F290" s="6"/>
-      <c r="G290" s="6"/>
+        <v>585</v>
+      </c>
+      <c r="C290" s="5">
+        <v>1</v>
+      </c>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="5" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="C291" s="6">
-        <v>1</v>
-      </c>
-      <c r="D291" s="6"/>
-      <c r="E291" s="6"/>
-      <c r="F291" s="6"/>
-      <c r="G291" s="6"/>
+        <v>587</v>
+      </c>
+      <c r="C291" s="5">
+        <v>1</v>
+      </c>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="5" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="C292" s="6">
-        <v>1</v>
-      </c>
-      <c r="D292" s="6"/>
-      <c r="E292" s="6"/>
-      <c r="F292" s="6"/>
-      <c r="G292" s="6"/>
+        <v>589</v>
+      </c>
+      <c r="C292" s="5">
+        <v>1</v>
+      </c>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="5" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="C293" s="6">
-        <v>1</v>
-      </c>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
-      <c r="F293" s="6"/>
-      <c r="G293" s="6"/>
-    </row>
-    <row r="294" spans="1:2">
+        <v>590</v>
+      </c>
+      <c r="C293" s="5">
+        <v>1</v>
+      </c>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>582</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="D294" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C295" s="5">
+        <v>1</v>
+      </c>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
     </row>
     <row r="296" spans="1:7">
-      <c r="A296" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="B296" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="C296" s="6">
-        <v>1</v>
-      </c>
-      <c r="D296" s="6"/>
-      <c r="E296" s="6"/>
-      <c r="F296" s="6"/>
-      <c r="G296" s="6"/>
+      <c r="A296" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4"/>
+      <c r="E296" s="4"/>
+      <c r="F296" s="4">
+        <v>1</v>
+      </c>
+      <c r="G296" s="4"/>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="C297" s="6">
-        <v>1</v>
-      </c>
-      <c r="D297" s="6"/>
-      <c r="E297" s="6"/>
-      <c r="F297" s="6"/>
-      <c r="G297" s="6"/>
+      <c r="A297" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+      <c r="E297" s="4"/>
+      <c r="F297" s="4">
+        <v>1</v>
+      </c>
+      <c r="G297" s="4"/>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="5" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="C298" s="6">
-        <v>1</v>
-      </c>
-      <c r="D298" s="6"/>
-      <c r="E298" s="6"/>
-      <c r="F298" s="6"/>
-      <c r="G298" s="6"/>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="C299" s="6">
-        <v>1</v>
-      </c>
-      <c r="D299" s="6"/>
-      <c r="E299" s="6"/>
-      <c r="F299" s="6"/>
-      <c r="G299" s="6"/>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>592</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="C298" s="5">
+        <v>1</v>
+      </c>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D299" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C300" s="5">
+        <v>1</v>
+      </c>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="C301" s="6">
-        <v>1</v>
-      </c>
-      <c r="D301" s="6"/>
-      <c r="E301" s="6"/>
-      <c r="F301" s="6"/>
-      <c r="G301" s="6"/>
+      <c r="A301" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4"/>
+      <c r="E301" s="4"/>
+      <c r="F301" s="4">
+        <v>1</v>
+      </c>
+      <c r="G301" s="4"/>
     </row>
     <row r="302" spans="1:7">
-      <c r="A302" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="B302" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="C302" s="6">
-        <v>1</v>
-      </c>
-      <c r="D302" s="6"/>
-      <c r="E302" s="6"/>
-      <c r="F302" s="6"/>
-      <c r="G302" s="6"/>
+      <c r="A302" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C302" s="4"/>
+      <c r="D302" s="4"/>
+      <c r="E302" s="4"/>
+      <c r="F302" s="4">
+        <v>1</v>
+      </c>
+      <c r="G302" s="4"/>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="4" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
@@ -8264,124 +8256,131 @@
       <c r="G303" s="4"/>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C304" s="4"/>
-      <c r="D304" s="4"/>
-      <c r="E304" s="4"/>
-      <c r="F304" s="4">
-        <v>1</v>
-      </c>
-      <c r="G304" s="4"/>
+      <c r="A304" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C304" s="5">
+        <v>1</v>
+      </c>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
-      <c r="E305" s="4"/>
-      <c r="F305" s="4">
-        <v>1</v>
-      </c>
-      <c r="G305" s="4"/>
+      <c r="A305" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C305" s="5">
+        <v>1</v>
+      </c>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
-      <c r="E306" s="4"/>
-      <c r="F306" s="4">
-        <v>1</v>
-      </c>
-      <c r="G306" s="4"/>
+      <c r="A306" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C306" s="5">
+        <v>1</v>
+      </c>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
     </row>
     <row r="307" spans="1:7">
-      <c r="A307" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="4">
-        <v>1</v>
-      </c>
-      <c r="G307" s="4"/>
+      <c r="A307" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C307" s="5">
+        <v>1</v>
+      </c>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
     </row>
     <row r="308" spans="1:7">
-      <c r="A308" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4">
-        <v>1</v>
-      </c>
-      <c r="G308" s="4"/>
+      <c r="A308" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C308" s="5">
+        <v>1</v>
+      </c>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4">
-        <v>1</v>
-      </c>
-      <c r="G309" s="4"/>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>612</v>
-      </c>
+      <c r="A309" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C309" s="5">
+        <v>1</v>
+      </c>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C310" s="5">
+        <v>1</v>
+      </c>
+      <c r="D310" s="5"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="4">
-        <v>1</v>
-      </c>
-      <c r="G311" s="4"/>
+      <c r="A311" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="C311" s="5">
+        <v>1</v>
+      </c>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="4" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -8391,366 +8390,347 @@
       </c>
       <c r="G312" s="4"/>
     </row>
-    <row r="313" spans="1:7">
-      <c r="A313" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
-      <c r="F313" s="4">
-        <v>1</v>
-      </c>
-      <c r="G313" s="4"/>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D313" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="5" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="C314" s="6">
-        <v>1</v>
-      </c>
-      <c r="D314" s="6"/>
-      <c r="E314" s="6"/>
-      <c r="F314" s="6"/>
-      <c r="G314" s="6"/>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>622</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="C314" s="5">
+        <v>1</v>
+      </c>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C315" s="5">
+        <v>1</v>
+      </c>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="5" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C316" s="6">
-        <v>1</v>
-      </c>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6"/>
-      <c r="F316" s="6"/>
-      <c r="G316" s="6"/>
+        <v>636</v>
+      </c>
+      <c r="C316" s="5">
+        <v>1</v>
+      </c>
+      <c r="D316" s="5"/>
+      <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="5"/>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="5" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="C317" s="6">
-        <v>1</v>
-      </c>
-      <c r="D317" s="6"/>
-      <c r="E317" s="6"/>
-      <c r="F317" s="6"/>
-      <c r="G317" s="6"/>
-    </row>
-    <row r="318" spans="1:7">
-      <c r="A318" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="B318" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="C318" s="6">
-        <v>1</v>
-      </c>
-      <c r="D318" s="6"/>
-      <c r="E318" s="6"/>
-      <c r="F318" s="6"/>
-      <c r="G318" s="6"/>
-    </row>
-    <row r="319" spans="1:7">
-      <c r="A319" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="C319" s="6">
-        <v>1</v>
-      </c>
-      <c r="D319" s="6"/>
-      <c r="E319" s="6"/>
-      <c r="F319" s="6"/>
-      <c r="G319" s="6"/>
-    </row>
-    <row r="320" spans="1:2">
+        <v>638</v>
+      </c>
+      <c r="C317" s="5">
+        <v>1</v>
+      </c>
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D318" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D319" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
-      <c r="A321" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="C321" s="6">
-        <v>1</v>
-      </c>
-      <c r="D321" s="6"/>
-      <c r="E321" s="6"/>
-      <c r="F321" s="6"/>
-      <c r="G321" s="6"/>
+        <v>644</v>
+      </c>
+      <c r="D320" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D321" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="C322" s="4"/>
-      <c r="D322" s="4"/>
-      <c r="E322" s="4"/>
-      <c r="F322" s="4">
-        <v>1</v>
-      </c>
-      <c r="G322" s="4"/>
+      <c r="A322" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C322" s="5">
+        <v>1</v>
+      </c>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
-      <c r="E323" s="4"/>
-      <c r="F323" s="4">
-        <v>1</v>
-      </c>
-      <c r="G323" s="4"/>
+      <c r="A323" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C323" s="5">
+        <v>1</v>
+      </c>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="5" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="C324" s="6">
-        <v>1</v>
-      </c>
-      <c r="D324" s="6"/>
-      <c r="E324" s="6"/>
-      <c r="F324" s="6"/>
-      <c r="G324" s="6"/>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
-      <c r="A326" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="C326" s="6">
-        <v>1</v>
-      </c>
-      <c r="D326" s="6"/>
-      <c r="E326" s="6"/>
-      <c r="F326" s="6"/>
-      <c r="G326" s="6"/>
+        <v>652</v>
+      </c>
+      <c r="C324" s="5">
+        <v>1</v>
+      </c>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C325" s="4"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4"/>
+      <c r="F325" s="4">
+        <v>1</v>
+      </c>
+      <c r="G325" s="4"/>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D326" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="B327" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="4"/>
-      <c r="F327" s="4">
-        <v>1</v>
-      </c>
-      <c r="G327" s="4"/>
+      <c r="A327" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C327" s="5">
+        <v>1</v>
+      </c>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="C328" s="4"/>
-      <c r="D328" s="4"/>
-      <c r="E328" s="4"/>
-      <c r="F328" s="4">
-        <v>1</v>
-      </c>
-      <c r="G328" s="4"/>
+      <c r="A328" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C328" s="5">
+        <v>1</v>
+      </c>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="B329" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="4"/>
-      <c r="F329" s="4">
-        <v>1</v>
-      </c>
-      <c r="G329" s="4"/>
+      <c r="A329" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C329" s="5">
+        <v>1</v>
+      </c>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="5" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="C330" s="6">
-        <v>1</v>
-      </c>
-      <c r="D330" s="6"/>
-      <c r="E330" s="6"/>
-      <c r="F330" s="6"/>
-      <c r="G330" s="6"/>
-    </row>
-    <row r="331" spans="1:7">
-      <c r="A331" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="C331" s="6">
-        <v>1</v>
-      </c>
-      <c r="D331" s="6"/>
-      <c r="E331" s="6"/>
-      <c r="F331" s="6"/>
-      <c r="G331" s="6"/>
-    </row>
-    <row r="332" spans="1:7">
-      <c r="A332" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="C332" s="6">
-        <v>1</v>
-      </c>
-      <c r="D332" s="6"/>
-      <c r="E332" s="6"/>
-      <c r="F332" s="6"/>
-      <c r="G332" s="6"/>
-    </row>
-    <row r="333" spans="1:7">
-      <c r="A333" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="C333" s="6">
-        <v>1</v>
-      </c>
-      <c r="D333" s="6"/>
-      <c r="E333" s="6"/>
-      <c r="F333" s="6"/>
-      <c r="G333" s="6"/>
-    </row>
-    <row r="334" spans="1:7">
-      <c r="A334" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="C334" s="6">
-        <v>1</v>
-      </c>
-      <c r="D334" s="6"/>
-      <c r="E334" s="6"/>
-      <c r="F334" s="6"/>
-      <c r="G334" s="6"/>
+        <v>664</v>
+      </c>
+      <c r="C330" s="5">
+        <v>1</v>
+      </c>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D331" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D332" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D333" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D334" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="5" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="C335" s="6">
-        <v>1</v>
-      </c>
-      <c r="D335" s="6"/>
-      <c r="E335" s="6"/>
-      <c r="F335" s="6"/>
-      <c r="G335" s="6"/>
+        <v>674</v>
+      </c>
+      <c r="C335" s="5">
+        <v>1</v>
+      </c>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="5" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="C336" s="6">
-        <v>1</v>
-      </c>
-      <c r="D336" s="6"/>
-      <c r="E336" s="6"/>
-      <c r="F336" s="6"/>
-      <c r="G336" s="6"/>
+        <v>676</v>
+      </c>
+      <c r="C336" s="5">
+        <v>1</v>
+      </c>
+      <c r="D336" s="5"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="5" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="C337" s="6">
-        <v>1</v>
-      </c>
-      <c r="D337" s="6"/>
-      <c r="E337" s="6"/>
-      <c r="F337" s="6"/>
-      <c r="G337" s="6"/>
+        <v>678</v>
+      </c>
+      <c r="C337" s="5">
+        <v>1</v>
+      </c>
+      <c r="D337" s="5"/>
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5"/>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="4" t="s">
-        <v>666</v>
+        <v>627</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -8760,333 +8740,377 @@
       </c>
       <c r="G338" s="4"/>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>668</v>
+        <v>629</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>669</v>
+        <v>680</v>
+      </c>
+      <c r="D339" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="5" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="C340" s="6">
-        <v>1</v>
-      </c>
-      <c r="D340" s="6"/>
-      <c r="E340" s="6"/>
-      <c r="F340" s="6"/>
-      <c r="G340" s="6"/>
+        <v>681</v>
+      </c>
+      <c r="C340" s="5">
+        <v>1</v>
+      </c>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="5" t="s">
-        <v>672</v>
+        <v>635</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="C341" s="6">
-        <v>1</v>
-      </c>
-      <c r="D341" s="6"/>
-      <c r="E341" s="6"/>
-      <c r="F341" s="6"/>
-      <c r="G341" s="6"/>
+        <v>682</v>
+      </c>
+      <c r="C341" s="5">
+        <v>1</v>
+      </c>
+      <c r="D341" s="5"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="5" t="s">
-        <v>674</v>
+        <v>637</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="C342" s="6">
-        <v>1</v>
-      </c>
-      <c r="D342" s="6"/>
-      <c r="E342" s="6"/>
-      <c r="F342" s="6"/>
-      <c r="G342" s="6"/>
-    </row>
-    <row r="343" spans="1:7">
-      <c r="A343" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="C343" s="6">
-        <v>1</v>
-      </c>
-      <c r="D343" s="6"/>
-      <c r="E343" s="6"/>
-      <c r="F343" s="6"/>
-      <c r="G343" s="6"/>
-    </row>
-    <row r="344" spans="1:2">
+        <v>683</v>
+      </c>
+      <c r="C342" s="5">
+        <v>1</v>
+      </c>
+      <c r="D342" s="5"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D343" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>678</v>
+        <v>641</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
+        <v>685</v>
+      </c>
+      <c r="D344" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>680</v>
+        <v>643</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
+        <v>686</v>
+      </c>
+      <c r="D345" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>682</v>
+        <v>645</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B348" s="1" t="s">
         <v>687</v>
       </c>
+      <c r="D346" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C347" s="5">
+        <v>1</v>
+      </c>
+      <c r="D347" s="5"/>
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C348" s="5">
+        <v>1</v>
+      </c>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="5" t="s">
-        <v>688</v>
+        <v>651</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="C349" s="6">
-        <v>1</v>
-      </c>
-      <c r="D349" s="6"/>
-      <c r="E349" s="6"/>
-      <c r="F349" s="6"/>
-      <c r="G349" s="6"/>
+        <v>690</v>
+      </c>
+      <c r="C349" s="5">
+        <v>1</v>
+      </c>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
     </row>
     <row r="350" spans="1:7">
-      <c r="A350" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="B350" s="5" t="s">
+      <c r="A350" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="C350" s="6">
-        <v>1</v>
-      </c>
-      <c r="D350" s="6"/>
-      <c r="E350" s="6"/>
-      <c r="F350" s="6"/>
-      <c r="G350" s="6"/>
-    </row>
-    <row r="351" spans="1:7">
-      <c r="A351" s="5" t="s">
+      <c r="B350" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="C350" s="4"/>
+      <c r="D350" s="4"/>
+      <c r="E350" s="4"/>
+      <c r="F350" s="4">
+        <v>1</v>
+      </c>
+      <c r="G350" s="4"/>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C351" s="6">
-        <v>1</v>
-      </c>
-      <c r="D351" s="6"/>
-      <c r="E351" s="6"/>
-      <c r="F351" s="6"/>
-      <c r="G351" s="6"/>
+      <c r="B351" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D351" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="352" spans="1:7">
-      <c r="A352" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="B352" s="4" t="s">
+      <c r="A352" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="C352" s="4"/>
-      <c r="D352" s="4"/>
-      <c r="E352" s="4"/>
-      <c r="F352" s="4">
-        <v>1</v>
-      </c>
-      <c r="G352" s="4"/>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" s="1" t="s">
+      <c r="B352" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="C352" s="5">
+        <v>1</v>
+      </c>
+      <c r="D352" s="5"/>
+      <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="5" t="s">
         <v>697</v>
       </c>
+      <c r="B353" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C353" s="5">
+        <v>1</v>
+      </c>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="C354" s="6">
-        <v>1</v>
-      </c>
-      <c r="D354" s="6"/>
-      <c r="E354" s="6"/>
-      <c r="F354" s="6"/>
-      <c r="G354" s="6"/>
+        <v>700</v>
+      </c>
+      <c r="C354" s="5">
+        <v>1</v>
+      </c>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="C355" s="6">
-        <v>1</v>
-      </c>
-      <c r="D355" s="6"/>
-      <c r="E355" s="6"/>
-      <c r="F355" s="6"/>
-      <c r="G355" s="6"/>
-    </row>
-    <row r="356" spans="1:7">
-      <c r="A356" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="B356" s="5" t="s">
+      <c r="C355" s="5">
+        <v>1</v>
+      </c>
+      <c r="D355" s="5"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C356" s="6">
-        <v>1</v>
-      </c>
-      <c r="D356" s="6"/>
-      <c r="E356" s="6"/>
-      <c r="F356" s="6"/>
-      <c r="G356" s="6"/>
-    </row>
-    <row r="357" spans="1:7">
-      <c r="A357" s="5" t="s">
+      <c r="B356" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B357" s="5" t="s">
+      <c r="D356" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C357" s="6">
-        <v>1</v>
-      </c>
-      <c r="D357" s="6"/>
-      <c r="E357" s="6"/>
-      <c r="F357" s="6"/>
-      <c r="G357" s="6"/>
-    </row>
-    <row r="358" spans="1:2">
+      <c r="B357" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D357" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
+        <v>708</v>
+      </c>
+      <c r="D358" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="D359" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="5" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" s="1" t="s">
+      <c r="B360" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="C360" s="5">
+        <v>1</v>
+      </c>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="5" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" s="1" t="s">
+      <c r="B361" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="C361" s="5">
+        <v>1</v>
+      </c>
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+      <c r="G361" s="5"/>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="5" t="s">
         <v>715</v>
       </c>
+      <c r="B362" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C362" s="5">
+        <v>1</v>
+      </c>
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
     </row>
     <row r="363" spans="1:7">
-      <c r="A363" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="B363" s="5" t="s">
+      <c r="A363" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="C363" s="6">
-        <v>1</v>
-      </c>
-      <c r="D363" s="6"/>
-      <c r="E363" s="6"/>
-      <c r="F363" s="6"/>
-      <c r="G363" s="6"/>
+      <c r="B363" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C363" s="4"/>
+      <c r="D363" s="4"/>
+      <c r="E363" s="4"/>
+      <c r="F363" s="4">
+        <v>1</v>
+      </c>
+      <c r="G363" s="4"/>
     </row>
     <row r="364" spans="1:7">
-      <c r="A364" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="B364" s="5" t="s">
+      <c r="A364" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="C364" s="6">
-        <v>1</v>
-      </c>
-      <c r="D364" s="6"/>
-      <c r="E364" s="6"/>
-      <c r="F364" s="6"/>
-      <c r="G364" s="6"/>
+      <c r="B364" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C364" s="4"/>
+      <c r="D364" s="4"/>
+      <c r="E364" s="4"/>
+      <c r="F364" s="4">
+        <v>1</v>
+      </c>
+      <c r="G364" s="4"/>
     </row>
     <row r="365" spans="1:7">
-      <c r="A365" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B365" s="5" t="s">
+      <c r="A365" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="C365" s="6">
-        <v>1</v>
-      </c>
-      <c r="D365" s="6"/>
-      <c r="E365" s="6"/>
-      <c r="F365" s="6"/>
-      <c r="G365" s="6"/>
+      <c r="B365" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C365" s="4"/>
+      <c r="D365" s="4"/>
+      <c r="E365" s="4"/>
+      <c r="F365" s="4">
+        <v>1</v>
+      </c>
+      <c r="G365" s="4"/>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
@@ -9096,180 +9120,194 @@
       </c>
       <c r="G366" s="4"/>
     </row>
-    <row r="367" spans="1:2">
-      <c r="A367" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B367" s="1" t="s">
+    <row r="367" spans="1:7">
+      <c r="A367" s="4" t="s">
         <v>725</v>
       </c>
+      <c r="B367" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
+      <c r="E367" s="4"/>
+      <c r="F367" s="4">
+        <v>1</v>
+      </c>
+      <c r="G367" s="4"/>
     </row>
     <row r="368" spans="1:7">
-      <c r="A368" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="B368" s="5" t="s">
+      <c r="A368" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C368" s="6">
-        <v>1</v>
-      </c>
-      <c r="D368" s="6"/>
-      <c r="E368" s="6"/>
-      <c r="F368" s="6"/>
-      <c r="G368" s="6"/>
+      <c r="B368" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C368" s="4"/>
+      <c r="D368" s="4"/>
+      <c r="E368" s="4"/>
+      <c r="F368" s="4">
+        <v>1</v>
+      </c>
+      <c r="G368" s="4"/>
     </row>
     <row r="369" spans="1:7">
-      <c r="A369" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="B369" s="5" t="s">
+      <c r="A369" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="C369" s="6">
-        <v>1</v>
-      </c>
-      <c r="D369" s="6"/>
-      <c r="E369" s="6"/>
-      <c r="F369" s="6"/>
-      <c r="G369" s="6"/>
+      <c r="B369" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C369" s="4"/>
+      <c r="D369" s="4"/>
+      <c r="E369" s="4"/>
+      <c r="F369" s="4">
+        <v>1</v>
+      </c>
+      <c r="G369" s="4"/>
     </row>
     <row r="370" spans="1:7">
-      <c r="A370" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="B370" s="5" t="s">
+      <c r="A370" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="C370" s="6">
-        <v>1</v>
-      </c>
-      <c r="D370" s="6"/>
-      <c r="E370" s="6"/>
-      <c r="F370" s="6"/>
-      <c r="G370" s="6"/>
+      <c r="B370" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+      <c r="E370" s="4"/>
+      <c r="F370" s="4">
+        <v>1</v>
+      </c>
+      <c r="G370" s="4"/>
     </row>
     <row r="371" spans="1:7">
-      <c r="A371" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="B371" s="5" t="s">
+      <c r="A371" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="C371" s="6">
-        <v>1</v>
-      </c>
-      <c r="D371" s="6"/>
-      <c r="E371" s="6"/>
-      <c r="F371" s="6"/>
-      <c r="G371" s="6"/>
-    </row>
-    <row r="372" spans="1:2">
+      <c r="B371" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C371" s="4"/>
+      <c r="D371" s="4"/>
+      <c r="E371" s="4"/>
+      <c r="F371" s="4">
+        <v>1</v>
+      </c>
+      <c r="G371" s="4"/>
+    </row>
+    <row r="372" spans="1:7">
       <c r="A372" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
+        <v>736</v>
+      </c>
+      <c r="G372" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
       <c r="A373" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
+        <v>738</v>
+      </c>
+      <c r="G373" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
       <c r="A374" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
+        <v>740</v>
+      </c>
+      <c r="G374" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
       <c r="A375" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
+        <v>742</v>
+      </c>
+      <c r="G375" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
+      </c>
+      <c r="G376" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:7">
-      <c r="A377" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="B377" s="5" t="s">
+      <c r="A377" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="C377" s="6">
-        <v>1</v>
-      </c>
-      <c r="D377" s="6"/>
-      <c r="E377" s="6"/>
-      <c r="F377" s="6"/>
-      <c r="G377" s="6"/>
+      <c r="B377" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C377" s="4"/>
+      <c r="D377" s="4"/>
+      <c r="E377" s="4"/>
+      <c r="F377" s="4">
+        <v>1</v>
+      </c>
+      <c r="G377" s="4"/>
     </row>
     <row r="378" spans="1:7">
-      <c r="A378" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="B378" s="5" t="s">
+      <c r="A378" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C378" s="6">
-        <v>1</v>
-      </c>
-      <c r="D378" s="6"/>
-      <c r="E378" s="6"/>
-      <c r="F378" s="6"/>
-      <c r="G378" s="6"/>
+      <c r="B378" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G378" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="B379" s="5" t="s">
+      <c r="A379" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="C379" s="6">
-        <v>1</v>
-      </c>
-      <c r="D379" s="6"/>
-      <c r="E379" s="6"/>
-      <c r="F379" s="6"/>
-      <c r="G379" s="6"/>
+      <c r="B379" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C379" s="4"/>
+      <c r="D379" s="4"/>
+      <c r="E379" s="4"/>
+      <c r="F379" s="4">
+        <v>1</v>
+      </c>
+      <c r="G379" s="4"/>
     </row>
     <row r="380" spans="1:7">
-      <c r="A380" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="B380" s="4" t="s">
+      <c r="A380" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C380" s="4"/>
-      <c r="D380" s="4"/>
-      <c r="E380" s="4"/>
-      <c r="F380" s="4">
-        <v>1</v>
-      </c>
-      <c r="G380" s="4"/>
+      <c r="B380" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G380" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
@@ -9281,10 +9319,10 @@
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
@@ -9296,10 +9334,10 @@
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
@@ -9311,10 +9349,10 @@
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
@@ -9326,10 +9364,10 @@
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="4" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
@@ -9341,10 +9379,10 @@
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
@@ -9356,10 +9394,10 @@
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
@@ -9371,10 +9409,10 @@
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
@@ -9386,10 +9424,10 @@
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
@@ -9399,52 +9437,79 @@
       </c>
       <c r="G389" s="4"/>
     </row>
-    <row r="390" spans="1:2">
-      <c r="A390" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B390" s="1" t="s">
+    <row r="390" spans="1:7">
+      <c r="A390" s="4" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="391" spans="1:2">
+      <c r="B390" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C390" s="4"/>
+      <c r="D390" s="4"/>
+      <c r="E390" s="4"/>
+      <c r="F390" s="4">
+        <v>1</v>
+      </c>
+      <c r="G390" s="4"/>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
+        <v>774</v>
+      </c>
+      <c r="G391" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B393" s="1" t="s">
+      <c r="G392" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="4" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" s="1" t="s">
+      <c r="B393" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="B394" s="1" t="s">
+      <c r="C393" s="4"/>
+      <c r="D393" s="4"/>
+      <c r="E393" s="4"/>
+      <c r="F393" s="4">
+        <v>1</v>
+      </c>
+      <c r="G393" s="4"/>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="4" t="s">
         <v>779</v>
       </c>
+      <c r="B394" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C394" s="4"/>
+      <c r="D394" s="4"/>
+      <c r="E394" s="4"/>
+      <c r="F394" s="4">
+        <v>1</v>
+      </c>
+      <c r="G394" s="4"/>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
@@ -9454,28 +9519,38 @@
       </c>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:7">
       <c r="A396" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
-      <c r="A397" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B397" s="1" t="s">
+      <c r="G396" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="4" t="s">
         <v>785</v>
       </c>
+      <c r="B397" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C397" s="4"/>
+      <c r="D397" s="4"/>
+      <c r="E397" s="4"/>
+      <c r="F397" s="4">
+        <v>1</v>
+      </c>
+      <c r="G397" s="4"/>
     </row>
     <row r="398" spans="1:7">
       <c r="A398" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
@@ -9485,20 +9560,27 @@
       </c>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:2">
-      <c r="A399" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B399" s="1" t="s">
+    <row r="399" spans="1:7">
+      <c r="A399" s="4" t="s">
         <v>789</v>
       </c>
+      <c r="B399" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C399" s="4"/>
+      <c r="D399" s="4"/>
+      <c r="E399" s="4"/>
+      <c r="F399" s="4">
+        <v>1</v>
+      </c>
+      <c r="G399" s="4"/>
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
@@ -9510,10 +9592,10 @@
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
@@ -9525,10 +9607,10 @@
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
@@ -9540,10 +9622,10 @@
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
@@ -9555,10 +9637,10 @@
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
@@ -9570,10 +9652,10 @@
     </row>
     <row r="405" spans="1:7">
       <c r="A405" s="4" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
@@ -9584,41 +9666,33 @@
       <c r="G405" s="4"/>
     </row>
     <row r="406" spans="1:7">
-      <c r="A406" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="B406" s="4" t="s">
+      <c r="A406" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C406" s="4"/>
-      <c r="D406" s="4"/>
-      <c r="E406" s="4"/>
-      <c r="F406" s="4">
-        <v>1</v>
-      </c>
-      <c r="G406" s="4"/>
+      <c r="B406" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="G406" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="407" spans="1:7">
-      <c r="A407" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="B407" s="4" t="s">
+      <c r="A407" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C407" s="4"/>
-      <c r="D407" s="4"/>
-      <c r="E407" s="4"/>
-      <c r="F407" s="4">
-        <v>1</v>
-      </c>
-      <c r="G407" s="4"/>
+      <c r="B407" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="G407" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
@@ -9630,10 +9704,10 @@
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
@@ -9643,96 +9717,97 @@
       </c>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:2">
-      <c r="A410" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B410" s="1" t="s">
+    <row r="410" spans="1:7">
+      <c r="A410" s="4" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" s="1" t="s">
+      <c r="B410" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="C410" s="4"/>
+      <c r="D410" s="4"/>
+      <c r="E410" s="4"/>
+      <c r="F410" s="4">
+        <v>1</v>
+      </c>
+      <c r="G410" s="4"/>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="4" t="s">
         <v>813</v>
       </c>
+      <c r="B411" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C411" s="4"/>
+      <c r="D411" s="4"/>
+      <c r="E411" s="4"/>
+      <c r="F411" s="4">
+        <v>1</v>
+      </c>
+      <c r="G411" s="4"/>
     </row>
     <row r="412" spans="1:7">
-      <c r="A412" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="B412" s="4" t="s">
+      <c r="A412" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C412" s="4"/>
-      <c r="D412" s="4"/>
-      <c r="E412" s="4"/>
-      <c r="F412" s="4">
-        <v>1</v>
-      </c>
-      <c r="G412" s="4"/>
+      <c r="B412" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G412" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="413" spans="1:7">
-      <c r="A413" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="B413" s="4" t="s">
+      <c r="A413" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C413" s="4"/>
-      <c r="D413" s="4"/>
-      <c r="E413" s="4"/>
-      <c r="F413" s="4">
-        <v>1</v>
-      </c>
-      <c r="G413" s="4"/>
+      <c r="B413" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="G413" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="414" spans="1:7">
-      <c r="A414" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="B414" s="4" t="s">
+      <c r="A414" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C414" s="4"/>
-      <c r="D414" s="4"/>
-      <c r="E414" s="4"/>
-      <c r="F414" s="4">
-        <v>1</v>
-      </c>
-      <c r="G414" s="4"/>
-    </row>
-    <row r="415" spans="1:2">
+      <c r="B414" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="G414" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
       <c r="A415" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
+      </c>
+      <c r="G415" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:7">
-      <c r="A416" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="B416" s="4" t="s">
+      <c r="A416" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C416" s="4"/>
-      <c r="D416" s="4"/>
-      <c r="E416" s="4"/>
-      <c r="F416" s="4">
-        <v>1</v>
-      </c>
-      <c r="G416" s="4"/>
+      <c r="B416" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G416" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
@@ -9744,10 +9819,10 @@
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -9759,10 +9834,10 @@
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
@@ -9774,10 +9849,10 @@
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
@@ -9789,10 +9864,10 @@
     </row>
     <row r="421" spans="1:7">
       <c r="A421" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
@@ -9804,10 +9879,10 @@
     </row>
     <row r="422" spans="1:7">
       <c r="A422" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -9819,10 +9894,10 @@
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
@@ -9834,10 +9909,10 @@
     </row>
     <row r="424" spans="1:7">
       <c r="A424" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
@@ -9847,28 +9922,42 @@
       </c>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="1:2">
-      <c r="A425" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="B425" s="1" t="s">
+    <row r="425" spans="1:7">
+      <c r="A425" s="4" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" s="1" t="s">
+      <c r="B425" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="C425" s="4"/>
+      <c r="D425" s="4"/>
+      <c r="E425" s="4"/>
+      <c r="F425" s="4">
+        <v>1</v>
+      </c>
+      <c r="G425" s="4"/>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="4" t="s">
         <v>843</v>
       </c>
+      <c r="B426" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C426" s="4"/>
+      <c r="D426" s="4"/>
+      <c r="E426" s="4"/>
+      <c r="F426" s="4">
+        <v>1</v>
+      </c>
+      <c r="G426" s="4"/>
     </row>
     <row r="427" spans="1:7">
       <c r="A427" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -9880,10 +9969,10 @@
     </row>
     <row r="428" spans="1:7">
       <c r="A428" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
@@ -9895,10 +9984,10 @@
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
@@ -9910,10 +9999,10 @@
     </row>
     <row r="430" spans="1:7">
       <c r="A430" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
@@ -9923,60 +10012,98 @@
       </c>
       <c r="G430" s="4"/>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:7">
       <c r="A431" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="G431" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="4" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" s="1" t="s">
+      <c r="B432" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="B433" s="1" t="s">
+      <c r="C432" s="4"/>
+      <c r="D432" s="4"/>
+      <c r="E432" s="4"/>
+      <c r="F432" s="4">
+        <v>1</v>
+      </c>
+      <c r="G432" s="4"/>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" s="4" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="434" spans="1:2">
-      <c r="A434" s="1" t="s">
+      <c r="B433" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="C433" s="4"/>
+      <c r="D433" s="4"/>
+      <c r="E433" s="4"/>
+      <c r="F433" s="4">
+        <v>1</v>
+      </c>
+      <c r="G433" s="4"/>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="4" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="435" spans="1:2">
-      <c r="A435" s="1" t="s">
+      <c r="B434" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="C434" s="4"/>
+      <c r="D434" s="4"/>
+      <c r="E434" s="4"/>
+      <c r="F434" s="4">
+        <v>1</v>
+      </c>
+      <c r="G434" s="4"/>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="4" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" s="1" t="s">
+      <c r="B435" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="C435" s="4"/>
+      <c r="D435" s="4"/>
+      <c r="E435" s="4"/>
+      <c r="F435" s="4">
+        <v>1</v>
+      </c>
+      <c r="G435" s="4"/>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="4" t="s">
         <v>863</v>
       </c>
+      <c r="B436" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="C436" s="4"/>
+      <c r="D436" s="4"/>
+      <c r="E436" s="4"/>
+      <c r="F436" s="4">
+        <v>1</v>
+      </c>
+      <c r="G436" s="4"/>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
@@ -9988,10 +10115,10 @@
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
@@ -10003,10 +10130,10 @@
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
@@ -10018,10 +10145,10 @@
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
@@ -10032,26 +10159,22 @@
       <c r="G440" s="4"/>
     </row>
     <row r="441" spans="1:7">
-      <c r="A441" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="B441" s="4" t="s">
+      <c r="A441" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C441" s="4"/>
-      <c r="D441" s="4"/>
-      <c r="E441" s="4"/>
-      <c r="F441" s="4">
-        <v>1</v>
-      </c>
-      <c r="G441" s="4"/>
+      <c r="B441" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="G441" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -10063,10 +10186,10 @@
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
@@ -10078,10 +10201,10 @@
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -10093,10 +10216,10 @@
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -10108,10 +10231,10 @@
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="4" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
@@ -10123,10 +10246,10 @@
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
@@ -10137,41 +10260,33 @@
       <c r="G447" s="4"/>
     </row>
     <row r="448" spans="1:7">
-      <c r="A448" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="B448" s="4" t="s">
+      <c r="A448" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
-      <c r="E448" s="4"/>
-      <c r="F448" s="4">
-        <v>1</v>
-      </c>
-      <c r="G448" s="4"/>
+      <c r="B448" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="G448" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="449" spans="1:7">
-      <c r="A449" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="B449" s="4" t="s">
+      <c r="A449" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
-      <c r="E449" s="4"/>
-      <c r="F449" s="4">
-        <v>1</v>
-      </c>
-      <c r="G449" s="4"/>
+      <c r="B449" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="G449" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="450" spans="1:7">
       <c r="A450" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
@@ -10181,277 +10296,20 @@
       </c>
       <c r="G450" s="4"/>
     </row>
-    <row r="451" spans="1:2">
-      <c r="A451" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B451" s="1" t="s">
+    <row r="451" spans="1:7">
+      <c r="A451" s="4" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="452" spans="1:7">
-      <c r="A452" s="4" t="s">
+      <c r="B451" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="B452" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="C452" s="4"/>
-      <c r="D452" s="4"/>
-      <c r="E452" s="4"/>
-      <c r="F452" s="4">
-        <v>1</v>
-      </c>
-      <c r="G452" s="4"/>
-    </row>
-    <row r="453" spans="1:7">
-      <c r="A453" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="B453" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="C453" s="4"/>
-      <c r="D453" s="4"/>
-      <c r="E453" s="4"/>
-      <c r="F453" s="4">
-        <v>1</v>
-      </c>
-      <c r="G453" s="4"/>
-    </row>
-    <row r="454" spans="1:7">
-      <c r="A454" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="B454" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="C454" s="4"/>
-      <c r="D454" s="4"/>
-      <c r="E454" s="4"/>
-      <c r="F454" s="4">
-        <v>1</v>
-      </c>
-      <c r="G454" s="4"/>
-    </row>
-    <row r="455" spans="1:7">
-      <c r="A455" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="B455" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="C455" s="4"/>
-      <c r="D455" s="4"/>
-      <c r="E455" s="4"/>
-      <c r="F455" s="4">
-        <v>1</v>
-      </c>
-      <c r="G455" s="4"/>
-    </row>
-    <row r="456" spans="1:7">
-      <c r="A456" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="B456" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
-      <c r="E456" s="4"/>
-      <c r="F456" s="4">
-        <v>1</v>
-      </c>
-      <c r="G456" s="4"/>
-    </row>
-    <row r="457" spans="1:7">
-      <c r="A457" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="B457" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="C457" s="4"/>
-      <c r="D457" s="4"/>
-      <c r="E457" s="4"/>
-      <c r="F457" s="4">
-        <v>1</v>
-      </c>
-      <c r="G457" s="4"/>
-    </row>
-    <row r="458" spans="1:7">
-      <c r="A458" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="B458" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
-      <c r="E458" s="4"/>
-      <c r="F458" s="4">
-        <v>1</v>
-      </c>
-      <c r="G458" s="4"/>
-    </row>
-    <row r="459" spans="1:7">
-      <c r="A459" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="B459" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
-      <c r="E459" s="4"/>
-      <c r="F459" s="4">
-        <v>1</v>
-      </c>
-      <c r="G459" s="4"/>
-    </row>
-    <row r="460" spans="1:7">
-      <c r="A460" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="B460" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="C460" s="4"/>
-      <c r="D460" s="4"/>
-      <c r="E460" s="4"/>
-      <c r="F460" s="4">
-        <v>1</v>
-      </c>
-      <c r="G460" s="4"/>
-    </row>
-    <row r="461" spans="1:2">
-      <c r="A461" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7">
-      <c r="A462" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="B462" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="C462" s="4"/>
-      <c r="D462" s="4"/>
-      <c r="E462" s="4"/>
-      <c r="F462" s="4">
-        <v>1</v>
-      </c>
-      <c r="G462" s="4"/>
-    </row>
-    <row r="463" spans="1:7">
-      <c r="A463" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="B463" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
-      <c r="E463" s="4"/>
-      <c r="F463" s="4">
-        <v>1</v>
-      </c>
-      <c r="G463" s="4"/>
-    </row>
-    <row r="464" spans="1:7">
-      <c r="A464" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="B464" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="C464" s="4"/>
-      <c r="D464" s="4"/>
-      <c r="E464" s="4"/>
-      <c r="F464" s="4">
-        <v>1</v>
-      </c>
-      <c r="G464" s="4"/>
-    </row>
-    <row r="465" spans="1:7">
-      <c r="A465" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B465" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C465" s="4"/>
-      <c r="D465" s="4"/>
-      <c r="E465" s="4"/>
-      <c r="F465" s="4">
-        <v>1</v>
-      </c>
-      <c r="G465" s="4"/>
-    </row>
-    <row r="466" spans="1:7">
-      <c r="A466" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="B466" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="C466" s="4"/>
-      <c r="D466" s="4"/>
-      <c r="E466" s="4"/>
-      <c r="F466" s="4">
-        <v>1</v>
-      </c>
-      <c r="G466" s="4"/>
-    </row>
-    <row r="467" spans="1:7">
-      <c r="A467" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="B467" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="C467" s="4"/>
-      <c r="D467" s="4"/>
-      <c r="E467" s="4"/>
-      <c r="F467" s="4">
-        <v>1</v>
-      </c>
-      <c r="G467" s="4"/>
-    </row>
-    <row r="468" spans="1:2">
-      <c r="A468" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
-      <c r="A469" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7">
-      <c r="A470" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="B470" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="C470" s="4"/>
-      <c r="D470" s="4"/>
-      <c r="E470" s="4"/>
-      <c r="F470" s="4">
-        <v>1</v>
-      </c>
-      <c r="G470" s="4"/>
+      <c r="C451" s="4"/>
+      <c r="D451" s="4"/>
+      <c r="E451" s="4"/>
+      <c r="F451" s="4">
+        <v>1</v>
+      </c>
+      <c r="G451" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
